--- a/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
   <si>
     <t>林勇</t>
   </si>
@@ -120,10 +120,6 @@
   </si>
   <si>
     <t>二网精品金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍二手车评估数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -279,14 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>免费保险总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费保险台次（含赠送）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>免费保养渗透率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,6 +332,24 @@
   </si>
   <si>
     <t>周转天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活跃微信客户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终身免费保险台次（含赠送）</t>
+  </si>
+  <si>
+    <t>终身免费保险总金额</t>
+  </si>
+  <si>
+    <t>推荐二手车评估数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中DCC交车台次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -836,13 +842,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,32 +1022,44 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1333,18 +1377,18 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AU38"/>
+  <dimension ref="A1:AU40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AF4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AR17" sqref="AR17"/>
+      <selection pane="bottomRight" activeCell="AH44" sqref="AH44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="11" width="5.625" customWidth="1"/>
     <col min="12" max="29" width="5.625" hidden="1" customWidth="1"/>
@@ -1365,81 +1409,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="56"/>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="57"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="59"/>
       <c r="AI2" s="26"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="26"/>
@@ -1449,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="35">
         <v>1</v>
@@ -1548,13 +1592,13 @@
         <v>2</v>
       </c>
       <c r="AI3" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="AK3" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU3"/>
     </row>
@@ -1562,7 +1606,7 @@
       <c r="A4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="61" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="23"/>
@@ -1597,7 +1641,7 @@
       <c r="AF4" s="12"/>
       <c r="AG4" s="18"/>
       <c r="AH4" s="38">
-        <f t="shared" ref="AH4:AH37" si="0">SUM(C4:AG4)</f>
+        <f t="shared" ref="AH4:AH39" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="38"/>
@@ -1608,35 +1652,35 @@
       </c>
       <c r="AL4"/>
       <c r="AM4" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN4" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO4" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AN4" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO4" s="41" t="s">
+      <c r="AQ4" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AP4" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ4" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="AR4" s="41" t="s">
+      <c r="AS4" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AS4" s="41" t="s">
-        <v>33</v>
-      </c>
       <c r="AT4" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="24"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1675,15 +1719,15 @@
       <c r="AI5" s="38"/>
       <c r="AJ5" s="14"/>
       <c r="AK5" s="40" t="e">
-        <f t="shared" ref="AK5:AK37" si="1">AH5/AI5</f>
+        <f t="shared" ref="AK5:AK39" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5"/>
       <c r="AM5" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AN5" s="42">
-        <f>AI8+AI17</f>
+        <f>AI8+AI20</f>
         <v>0</v>
       </c>
       <c r="AO5" s="43"/>
@@ -1741,14 +1785,14 @@
       </c>
       <c r="AL6"/>
       <c r="AM6" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AN6" s="42">
-        <f>AH8+AH17</f>
+        <f>AH8+AH20</f>
         <v>0</v>
       </c>
       <c r="AO6" s="43" t="e">
-        <f>AH8/(AH8+AH17)</f>
+        <f>AH8/(AH8+AH20)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP6" s="43" t="e">
@@ -1760,15 +1804,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR6" s="43" t="e">
-        <f>AH11/AH8</f>
+        <f>AH12/AH8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS6" s="42" t="e">
-        <f>AH12/AH11</f>
+        <f>AH13/AH12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT6" s="43" t="e">
-        <f>AH30/AH8</f>
+        <f>AH33/AH8</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1776,7 +1820,7 @@
       <c r="A7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="63" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="24"/>
@@ -1824,7 +1868,7 @@
       </c>
       <c r="AL7"/>
       <c r="AM7" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AN7" s="44" t="e">
         <f t="shared" ref="AN7:AT7" si="2">AN6/AN5</f>
@@ -1859,7 +1903,7 @@
       <c r="A8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="24"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1903,35 +1947,35 @@
       </c>
       <c r="AL8"/>
       <c r="AM8" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN8" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO8" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP8" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AP8" s="45" t="s">
+      <c r="AQ8" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="AQ8" s="45" t="s">
+      <c r="AR8" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="AR8" s="45" t="s">
-        <v>39</v>
-      </c>
       <c r="AS8" s="45" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AT8" s="45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="60"/>
+        <v>84</v>
+      </c>
+      <c r="B9" s="64"/>
       <c r="C9" s="24"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1975,7 +2019,7 @@
       </c>
       <c r="AL9"/>
       <c r="AM9" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AN9" s="42"/>
       <c r="AO9" s="43"/>
@@ -1987,9 +2031,9 @@
     </row>
     <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="60"/>
+        <v>24</v>
+      </c>
+      <c r="B10" s="64"/>
       <c r="C10" s="24"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2033,42 +2077,42 @@
       </c>
       <c r="AL10"/>
       <c r="AM10" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AN10" s="42" t="e">
-        <f>AH31/AH30</f>
+        <f>AH34/AH33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="43" t="e">
-        <f>AH13/AH8</f>
+        <f>AH14/AH8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" s="42" t="e">
-        <f>AH14/AH13</f>
+        <f>AH15/AH14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" s="43" t="e">
-        <f>AH15/AH8</f>
+        <f>AH16/AH8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" s="43" t="e">
-        <f>AH9/AH8</f>
+        <f>AH10/AH8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10" s="42" t="e">
-        <f>AH10/AH8</f>
+        <f>AH11/AH8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT10" s="42" t="e">
-        <f>AH19/AH17</f>
+        <f>AH22/AH20</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="60"/>
+      <c r="A11" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="64"/>
       <c r="C11" s="24"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2112,7 +2156,7 @@
       </c>
       <c r="AL11"/>
       <c r="AM11" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AN11" s="47" t="e">
         <f t="shared" ref="AN11:AT11" si="3">AN10/AN9</f>
@@ -2144,10 +2188,10 @@
       </c>
     </row>
     <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="60"/>
+      <c r="A12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="64"/>
       <c r="C12" s="24"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2180,7 +2224,7 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C12:AG12)</f>
         <v>0</v>
       </c>
       <c r="AI12" s="38"/>
@@ -2191,35 +2235,35 @@
       </c>
       <c r="AL12"/>
       <c r="AM12" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN12" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AO12" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AP12" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ12" s="34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AR12" s="34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AS12" s="34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AT12" s="34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="60"/>
+      <c r="A13" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="64"/>
       <c r="C13" s="24"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2252,7 +2296,7 @@
       <c r="AF13" s="12"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="38">
-        <f>SUM(C13:AG13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI13" s="38"/>
@@ -2263,7 +2307,7 @@
       </c>
       <c r="AL13"/>
       <c r="AM13" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AN13" s="46"/>
       <c r="AO13" s="43"/>
@@ -2271,7 +2315,7 @@
       <c r="AQ13" s="42"/>
       <c r="AR13" s="42"/>
       <c r="AS13" s="42">
-        <f>(AI8+AI17)*AN27/30</f>
+        <f>(AI8+AI20)*AN27/30</f>
         <v>0</v>
       </c>
       <c r="AT13" s="46">
@@ -2280,10 +2324,10 @@
       </c>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="24"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2316,7 +2360,7 @@
       <c r="AF14" s="12"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C14:AG14)</f>
         <v>0</v>
       </c>
       <c r="AI14" s="38"/>
@@ -2327,27 +2371,27 @@
       </c>
       <c r="AL14"/>
       <c r="AM14" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AN14" s="46">
-        <f>AH25</f>
+        <f>AH28</f>
         <v>0</v>
       </c>
       <c r="AO14" s="43" t="e">
-        <f>(AH27+AH28+AH29)/AH8</f>
+        <f>(AH30+AH31+AH32)/AH8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP14" s="46" t="e">
-        <f>AH26/(AH27+AH28+AH29)</f>
+        <f>AH29/(AH30+AH31+AH32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ14" s="42" t="e">
-        <f>AH37/AH8</f>
-        <v>#DIV/0!</v>
+        <f>#REF!/AH8</f>
+        <v>#REF!</v>
       </c>
       <c r="AR14" s="42" t="e">
-        <f>AH38/AH37</f>
-        <v>#DIV/0!</v>
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AS14" s="42">
         <f>AN22</f>
@@ -2359,10 +2403,10 @@
       </c>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="32"/>
+      <c r="A15" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="65"/>
       <c r="C15" s="24"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2395,7 +2439,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="38">
-        <f>SUM(C15:AG15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI15" s="38"/>
@@ -2406,7 +2450,7 @@
       </c>
       <c r="AL15"/>
       <c r="AM15" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AN15" s="46" t="e">
         <f>AN14/AN13</f>
@@ -2422,22 +2466,20 @@
       </c>
       <c r="AQ15" s="44" t="e">
         <f>AQ14/AQ13</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AR15" s="44" t="e">
         <f>AR14/AR13</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AS15" s="44"/>
       <c r="AT15" s="44"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="B16" s="32"/>
       <c r="C16" s="24"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2481,10 +2523,10 @@
       </c>
       <c r="AL16"/>
       <c r="AM16" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN16" s="34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AO16" s="34"/>
       <c r="AP16" s="34"/>
@@ -2495,10 +2537,10 @@
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>8</v>
+        <v>49</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>7</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="4"/>
@@ -2532,7 +2574,7 @@
       <c r="AF17" s="12"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C17:AG17)</f>
         <v>0</v>
       </c>
       <c r="AI17" s="38"/>
@@ -2543,10 +2585,10 @@
       </c>
       <c r="AL17"/>
       <c r="AM17" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AN17" s="46">
-        <f>AI12+AI14+AI10*0.5+AI22+AI26+AI16*0.3</f>
+        <f>AI13+AI15+AI11*0.5+AI25+AI29+AI17*0.3</f>
         <v>0</v>
       </c>
       <c r="AO17" s="43"/>
@@ -2558,9 +2600,9 @@
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="50"/>
+        <v>81</v>
+      </c>
+      <c r="B18" s="49"/>
       <c r="C18" s="24"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2593,7 +2635,7 @@
       <c r="AF18" s="12"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AH18:AH19" si="4">SUM(C18:AG18)</f>
         <v>0</v>
       </c>
       <c r="AI18" s="38"/>
@@ -2604,10 +2646,10 @@
       </c>
       <c r="AL18"/>
       <c r="AM18" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AN18" s="46">
-        <f>AH16*0.3+AH12+AH14+AH10*0.5+AH22+AH26+AH32</f>
+        <f>AH17*0.3+AH13+AH15+AH11*0.5+AH25+AH29+AH35</f>
         <v>0</v>
       </c>
       <c r="AO18" s="43"/>
@@ -2616,13 +2658,12 @@
       <c r="AR18" s="42"/>
       <c r="AS18" s="42"/>
       <c r="AT18" s="46"/>
-      <c r="AU18"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="50"/>
+      <c r="A19" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="49"/>
       <c r="C19" s="24"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2655,7 +2696,7 @@
       <c r="AF19" s="12"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="38">
-        <f>SUM(C19:AG19)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI19" s="38"/>
@@ -2666,7 +2707,7 @@
       </c>
       <c r="AL19"/>
       <c r="AM19" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AN19" s="46"/>
       <c r="AO19" s="44"/>
@@ -2678,9 +2719,11 @@
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="50"/>
+        <v>52</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>8</v>
+      </c>
       <c r="C20" s="24"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2713,7 +2756,7 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="38">
-        <f t="shared" ref="AH20" si="4">SUM(C20:AG20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI20" s="38"/>
@@ -2725,10 +2768,10 @@
       <c r="AL20"/>
     </row>
     <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="50"/>
+      <c r="A21" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="61"/>
       <c r="C21" s="24"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2761,7 +2804,7 @@
       <c r="AF21" s="12"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="38">
-        <f>SUM(C21:AG21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI21" s="38"/>
@@ -2772,15 +2815,16 @@
       </c>
       <c r="AL21"/>
       <c r="AM21" s="39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AN21" s="1"/>
+      <c r="AU21"/>
     </row>
     <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="50"/>
+        <v>26</v>
+      </c>
+      <c r="B22" s="61"/>
       <c r="C22" s="24"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2824,18 +2868,18 @@
       </c>
       <c r="AL22"/>
       <c r="AM22" s="39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AN22" s="1">
-        <f>AH36-AH8-AH17-AH23</f>
+        <f>AH39-AH8-AH20-AH26</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="B23" s="61"/>
       <c r="C23" s="24"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2868,7 +2912,7 @@
       <c r="AF23" s="12"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AH23" si="5">SUM(C23:AG23)</f>
         <v>0</v>
       </c>
       <c r="AI23" s="38"/>
@@ -2879,17 +2923,15 @@
       </c>
       <c r="AL23"/>
       <c r="AM23" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AN23" s="1"/>
     </row>
     <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>10</v>
-      </c>
+      <c r="A24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="61"/>
       <c r="C24" s="24"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2922,7 +2964,7 @@
       <c r="AF24" s="12"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C24:AG24)</f>
         <v>0</v>
       </c>
       <c r="AI24" s="38"/>
@@ -2933,7 +2975,7 @@
       </c>
       <c r="AL24"/>
       <c r="AM24" s="39" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AN24" s="1">
         <f>AN22+AN23</f>
@@ -2941,10 +2983,10 @@
       </c>
     </row>
     <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="58"/>
+      <c r="A25" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="61"/>
       <c r="C25" s="24"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -2977,7 +3019,7 @@
       <c r="AF25" s="12"/>
       <c r="AG25" s="19"/>
       <c r="AH25" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C25:AG25)</f>
         <v>0</v>
       </c>
       <c r="AI25" s="38"/>
@@ -2988,15 +3030,15 @@
       </c>
       <c r="AL25"/>
       <c r="AM25" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AN25" s="1"/>
     </row>
     <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="27"/>
+      <c r="A26" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="62"/>
       <c r="C26" s="24"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -3029,7 +3071,7 @@
       <c r="AF26" s="12"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="38">
-        <f>SUM(C26:AG26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI26" s="38"/>
@@ -3040,20 +3082,19 @@
       </c>
       <c r="AL26"/>
       <c r="AM26" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AN26" s="1">
         <f>AH7-AH8</f>
         <v>0</v>
       </c>
-      <c r="AU26"/>
     </row>
     <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>12</v>
+      <c r="A27" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>10</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="4"/>
@@ -3098,15 +3139,15 @@
       </c>
       <c r="AL27"/>
       <c r="AM27" s="39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AN27" s="1"/>
     </row>
     <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="50"/>
+        <v>11</v>
+      </c>
+      <c r="B28" s="62"/>
       <c r="C28" s="24"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3151,10 +3192,10 @@
       <c r="AL28"/>
     </row>
     <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="50"/>
+      <c r="A29" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="27"/>
       <c r="C29" s="24"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3187,7 +3228,7 @@
       <c r="AF29" s="12"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C29:AG29)</f>
         <v>0</v>
       </c>
       <c r="AI29" s="38"/>
@@ -3196,12 +3237,16 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL29"/>
+      <c r="AU29"/>
     </row>
     <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="50"/>
+      <c r="A30" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>12</v>
+      </c>
       <c r="C30" s="24"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -3234,7 +3279,7 @@
       <c r="AF30" s="12"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="38">
-        <f>SUM(C30:AG30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI30" s="38"/>
@@ -3243,19 +3288,20 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL30"/>
     </row>
     <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="58"/>
+        <v>43</v>
+      </c>
+      <c r="B31" s="61"/>
       <c r="C31" s="24"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="5"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -3281,29 +3327,29 @@
       <c r="AF31" s="12"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="38">
-        <f>SUM(C31:AG31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI31" s="38"/>
       <c r="AJ31" s="14"/>
       <c r="AK31" s="40" t="e">
-        <f>AH31/AI31</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL31"/>
     </row>
     <row r="32" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="48"/>
+        <v>44</v>
+      </c>
+      <c r="B32" s="61"/>
       <c r="C32" s="24"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -3329,24 +3375,21 @@
       <c r="AF32" s="12"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="38">
-        <f>SUM(C32:AG32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI32" s="38"/>
       <c r="AJ32" s="14"/>
       <c r="AK32" s="40" t="e">
-        <f>AH32/AI32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL32"/>
-    </row>
-    <row r="33" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>14</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="61"/>
       <c r="C33" s="24"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3379,7 +3422,7 @@
       <c r="AF33" s="12"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C33:AG33)</f>
         <v>0</v>
       </c>
       <c r="AI33" s="38"/>
@@ -3389,18 +3432,18 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="50"/>
+        <v>59</v>
+      </c>
+      <c r="B34" s="62"/>
       <c r="C34" s="24"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3426,28 +3469,29 @@
       <c r="AF34" s="12"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C34:AG34)</f>
         <v>0</v>
       </c>
       <c r="AI34" s="38"/>
       <c r="AJ34" s="14"/>
       <c r="AK34" s="40" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" ht="20.100000000000001" customHeight="1">
+        <f>AH34/AI34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL34"/>
+    </row>
+    <row r="35" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="58"/>
+        <v>74</v>
+      </c>
+      <c r="B35" s="48"/>
       <c r="C35" s="24"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3473,21 +3517,24 @@
       <c r="AF35" s="12"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C35:AG35)</f>
         <v>0</v>
       </c>
       <c r="AI35" s="38"/>
       <c r="AJ35" s="14"/>
       <c r="AK35" s="40" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37" ht="20.100000000000001" customHeight="1">
+        <f>AH35/AI35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL35"/>
+    </row>
+    <row r="36" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="49"/>
+        <v>13</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>14</v>
+      </c>
       <c r="C36" s="24"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3524,34 +3571,32 @@
         <v>0</v>
       </c>
       <c r="AI36" s="38"/>
-      <c r="AJ36" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="AJ36" s="14"/>
       <c r="AK36" s="40" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="37" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="B37" s="61"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
@@ -3567,38 +3612,38 @@
       <c r="AD37" s="12"/>
       <c r="AE37" s="12"/>
       <c r="AF37" s="12"/>
-      <c r="AG37" s="20"/>
+      <c r="AG37" s="19"/>
       <c r="AH37" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI37" s="38"/>
-      <c r="AJ37" s="16"/>
+      <c r="AJ37" s="14"/>
       <c r="AK37" s="40" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="38" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="B38" s="62"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
       <c r="R38" s="12"/>
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
@@ -3614,28 +3659,123 @@
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
       <c r="AF38" s="12"/>
-      <c r="AG38" s="20"/>
+      <c r="AG38" s="19"/>
       <c r="AH38" s="38">
-        <f t="shared" ref="AH38" si="5">SUM(C38:AG38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI38" s="38"/>
-      <c r="AJ38" s="16"/>
+      <c r="AJ38" s="14"/>
       <c r="AK38" s="40" t="e">
-        <f t="shared" ref="AK38" si="6">AH38/AI38</f>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="53"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI39" s="38"/>
+      <c r="AJ39" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK39" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" ht="18" customHeight="1" thickBot="1">
+      <c r="A40" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="50"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="38">
+        <f t="shared" ref="AH40" si="6">SUM(C40:AG40)</f>
+        <v>0</v>
+      </c>
+      <c r="AI40" s="38"/>
+      <c r="AJ40" s="16"/>
+      <c r="AK40" s="40" t="e">
+        <f t="shared" ref="AK40" si="7">AH40/AI40</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
+    <mergeCell ref="A1:AH2"/>
     <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A1:AH2"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B30:B34"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B7:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="销售" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>林勇</t>
   </si>
@@ -350,6 +350,10 @@
   </si>
   <si>
     <t>其中DCC交车台次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留微信客户数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,8 +361,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0&quot;.&quot;0,&quot;万&quot;"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -874,7 +879,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1037,6 +1042,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1071,6 +1079,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1377,13 +1388,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AU40"/>
+  <dimension ref="A1:AU41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AM6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH44" sqref="AH44"/>
+      <selection pane="bottomRight" activeCell="AT15" sqref="AT15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1409,81 +1420,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="57"/>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="59"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="60"/>
       <c r="AI2" s="26"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="26"/>
@@ -1606,7 +1617,7 @@
       <c r="A4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="62" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="23"/>
@@ -1641,7 +1652,7 @@
       <c r="AF4" s="12"/>
       <c r="AG4" s="18"/>
       <c r="AH4" s="38">
-        <f t="shared" ref="AH4:AH39" si="0">SUM(C4:AG4)</f>
+        <f t="shared" ref="AH4:AH40" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="38"/>
@@ -1680,7 +1691,7 @@
       <c r="A5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="24"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1719,7 +1730,7 @@
       <c r="AI5" s="38"/>
       <c r="AJ5" s="14"/>
       <c r="AK5" s="40" t="e">
-        <f t="shared" ref="AK5:AK39" si="1">AH5/AI5</f>
+        <f t="shared" ref="AK5:AK40" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5"/>
@@ -1727,7 +1738,7 @@
         <v>33</v>
       </c>
       <c r="AN5" s="42">
-        <f>AI8+AI20</f>
+        <f>AI9+AI21</f>
         <v>0</v>
       </c>
       <c r="AO5" s="43"/>
@@ -1738,10 +1749,10 @@
       <c r="AT5" s="43"/>
     </row>
     <row r="6" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27"/>
+      <c r="A6" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="54"/>
       <c r="C6" s="24"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1788,11 +1799,11 @@
         <v>34</v>
       </c>
       <c r="AN6" s="42">
-        <f>AH8+AH20</f>
+        <f>AH9+AH21</f>
         <v>0</v>
       </c>
       <c r="AO6" s="43" t="e">
-        <f>AH8/(AH8+AH20)</f>
+        <f>AH9/(AH9+AH21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP6" s="43" t="e">
@@ -1800,29 +1811,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ6" s="43" t="e">
-        <f>(AH7-AN25)/AH5</f>
+        <f>(AH8-AN25)/AH5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR6" s="43" t="e">
-        <f>AH12/AH8</f>
+        <f>AH13/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS6" s="42" t="e">
-        <f>AH13/AH12</f>
+        <f>AH14/AH13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT6" s="43" t="e">
-        <f>AH33/AH8</f>
+        <f>AH34/AH9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>0</v>
-      </c>
+      <c r="A7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="27"/>
       <c r="C7" s="24"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1855,13 +1864,11 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C7:AG7)</f>
         <v>0</v>
       </c>
       <c r="AI7" s="38"/>
-      <c r="AJ7" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="AJ7" s="14"/>
       <c r="AK7" s="40" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -1901,9 +1908,11 @@
     </row>
     <row r="8" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="64"/>
+        <v>22</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>0</v>
+      </c>
       <c r="C8" s="24"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1936,11 +1945,13 @@
       <c r="AF8" s="12"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="38">
-        <f>SUM(C8:AG8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI8" s="38"/>
-      <c r="AJ8" s="14"/>
+      <c r="AJ8" s="15" t="s">
+        <v>6</v>
+      </c>
       <c r="AK8" s="40" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -1973,9 +1984,9 @@
     </row>
     <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="64"/>
+        <v>23</v>
+      </c>
+      <c r="B9" s="65"/>
       <c r="C9" s="24"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2031,9 +2042,9 @@
     </row>
     <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="64"/>
+        <v>84</v>
+      </c>
+      <c r="B10" s="65"/>
       <c r="C10" s="24"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2080,39 +2091,39 @@
         <v>34</v>
       </c>
       <c r="AN10" s="42" t="e">
-        <f>AH34/AH33</f>
+        <f>AH35/AH34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="43" t="e">
-        <f>AH14/AH8</f>
+        <f>AH15/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" s="42" t="e">
-        <f>AH15/AH14</f>
+        <f>AH16/AH15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" s="43" t="e">
-        <f>AH16/AH8</f>
+        <f>AH17/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" s="43" t="e">
-        <f>AH10/AH8</f>
+        <f>AH11/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10" s="42" t="e">
-        <f>AH11/AH8</f>
+        <f>AH12/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT10" s="42" t="e">
-        <f>AH22/AH20</f>
+        <f>AH23/AH21</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="64"/>
+        <v>24</v>
+      </c>
+      <c r="B11" s="65"/>
       <c r="C11" s="24"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2188,10 +2199,10 @@
       </c>
     </row>
     <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="64"/>
+      <c r="A12" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="65"/>
       <c r="C12" s="24"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2260,10 +2271,10 @@
       </c>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="64"/>
+      <c r="A13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="65"/>
       <c r="C13" s="24"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2296,7 +2307,7 @@
       <c r="AF13" s="12"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C13:AG13)</f>
         <v>0</v>
       </c>
       <c r="AI13" s="38"/>
@@ -2312,22 +2323,22 @@
       <c r="AN13" s="46"/>
       <c r="AO13" s="43"/>
       <c r="AP13" s="46"/>
-      <c r="AQ13" s="42"/>
+      <c r="AQ13" s="44"/>
       <c r="AR13" s="42"/>
       <c r="AS13" s="42">
-        <f>(AI8+AI20)*AN27/30</f>
-        <v>0</v>
-      </c>
-      <c r="AT13" s="46">
+        <f>(AI9+AI21)*AN27/30</f>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="67">
         <f>AS13*AN21*0.0075</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="64"/>
+      <c r="A14" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="65"/>
       <c r="C14" s="24"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2360,7 +2371,7 @@
       <c r="AF14" s="12"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="38">
-        <f>SUM(C14:AG14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI14" s="38"/>
@@ -2374,37 +2385,37 @@
         <v>34</v>
       </c>
       <c r="AN14" s="46">
-        <f>AH28</f>
+        <f>AH29</f>
         <v>0</v>
       </c>
       <c r="AO14" s="43" t="e">
-        <f>(AH30+AH31+AH32)/AH8</f>
+        <f>(AH31+AH32+AH33)/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP14" s="46" t="e">
-        <f>AH29/(AH30+AH31+AH32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ14" s="42" t="e">
-        <f>#REF!/AH8</f>
-        <v>#REF!</v>
+        <f>AH30/(AH31+AH32+AH33)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ14" s="44" t="e">
+        <f>AH19/AH9</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AR14" s="42" t="e">
-        <f>#REF!/#REF!</f>
-        <v>#REF!</v>
+        <f>AH20/AH19</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AS14" s="42">
         <f>AN22</f>
         <v>0</v>
       </c>
-      <c r="AT14" s="46">
+      <c r="AT14" s="67">
         <f>AS14*AN21*0.0075</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="29" t="s">
-        <v>47</v>
+      <c r="A15" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="B15" s="65"/>
       <c r="C15" s="24"/>
@@ -2439,7 +2450,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C15:AG15)</f>
         <v>0</v>
       </c>
       <c r="AI15" s="38"/>
@@ -2452,7 +2463,7 @@
       <c r="AM15" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="AN15" s="46" t="e">
+      <c r="AN15" s="44" t="e">
         <f>AN14/AN13</f>
         <v>#DIV/0!</v>
       </c>
@@ -2466,20 +2477,20 @@
       </c>
       <c r="AQ15" s="44" t="e">
         <f>AQ14/AQ13</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AR15" s="44" t="e">
         <f>AR14/AR13</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AS15" s="44"/>
       <c r="AT15" s="44"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="32"/>
+      <c r="A16" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="66"/>
       <c r="C16" s="24"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2512,7 +2523,7 @@
       <c r="AF16" s="12"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="38">
-        <f>SUM(C16:AG16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI16" s="38"/>
@@ -2536,12 +2547,10 @@
       <c r="AT16" s="34"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="A17" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="32"/>
       <c r="C17" s="24"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2588,7 +2597,7 @@
         <v>33</v>
       </c>
       <c r="AN17" s="46">
-        <f>AI13+AI15+AI11*0.5+AI25+AI29+AI17*0.3</f>
+        <f>AI14+AI16+AI12*0.5+AI26+AI30+AI18*0.3+AI36</f>
         <v>0</v>
       </c>
       <c r="AO17" s="43"/>
@@ -2600,9 +2609,11 @@
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="49"/>
+        <v>49</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>7</v>
+      </c>
       <c r="C18" s="24"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2635,7 +2646,7 @@
       <c r="AF18" s="12"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="38">
-        <f t="shared" ref="AH18:AH19" si="4">SUM(C18:AG18)</f>
+        <f>SUM(C18:AG18)</f>
         <v>0</v>
       </c>
       <c r="AI18" s="38"/>
@@ -2649,7 +2660,7 @@
         <v>34</v>
       </c>
       <c r="AN18" s="46">
-        <f>AH17*0.3+AH13+AH15+AH11*0.5+AH25+AH29+AH35</f>
+        <f>AH18*0.3+AH14+AH16+AH12*0.5+AH26+AH30+AH36</f>
         <v>0</v>
       </c>
       <c r="AO18" s="43"/>
@@ -2661,7 +2672,7 @@
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="24"/>
@@ -2696,7 +2707,7 @@
       <c r="AF19" s="12"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AH19:AH20" si="4">SUM(C19:AG19)</f>
         <v>0</v>
       </c>
       <c r="AI19" s="38"/>
@@ -2709,7 +2720,10 @@
       <c r="AM19" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="AN19" s="46"/>
+      <c r="AN19" s="44" t="e">
+        <f>AN18/AN17</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AO19" s="44"/>
       <c r="AP19" s="44"/>
       <c r="AQ19" s="44"/>
@@ -2719,11 +2733,9 @@
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>8</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B20" s="49"/>
       <c r="C20" s="24"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2756,7 +2768,7 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI20" s="38"/>
@@ -2769,9 +2781,11 @@
     </row>
     <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="61"/>
+        <v>52</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>8</v>
+      </c>
       <c r="C21" s="24"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2818,13 +2832,12 @@
         <v>77</v>
       </c>
       <c r="AN21" s="1"/>
-      <c r="AU21"/>
     </row>
     <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="61"/>
+      <c r="A22" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="62"/>
       <c r="C22" s="24"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2857,7 +2870,7 @@
       <c r="AF22" s="12"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="38">
-        <f>SUM(C22:AG22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI22" s="38"/>
@@ -2871,15 +2884,16 @@
         <v>69</v>
       </c>
       <c r="AN22" s="1">
-        <f>AH39-AH8-AH20-AH26</f>
-        <v>0</v>
-      </c>
+        <f>AH40-AH9-AH21-AH27</f>
+        <v>0</v>
+      </c>
+      <c r="AU22"/>
     </row>
     <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="61"/>
+      <c r="A23" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="62"/>
       <c r="C23" s="24"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2912,7 +2926,7 @@
       <c r="AF23" s="12"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="38">
-        <f t="shared" ref="AH23" si="5">SUM(C23:AG23)</f>
+        <f>SUM(C23:AG23)</f>
         <v>0</v>
       </c>
       <c r="AI23" s="38"/>
@@ -2928,10 +2942,10 @@
       <c r="AN23" s="1"/>
     </row>
     <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="61"/>
+      <c r="A24" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="62"/>
       <c r="C24" s="24"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2964,7 +2978,7 @@
       <c r="AF24" s="12"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="38">
-        <f>SUM(C24:AG24)</f>
+        <f t="shared" ref="AH24" si="5">SUM(C24:AG24)</f>
         <v>0</v>
       </c>
       <c r="AI24" s="38"/>
@@ -2984,9 +2998,9 @@
     </row>
     <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="61"/>
+        <v>54</v>
+      </c>
+      <c r="B25" s="62"/>
       <c r="C25" s="24"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -3035,8 +3049,8 @@
       <c r="AN25" s="1"/>
     </row>
     <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="29" t="s">
-        <v>9</v>
+      <c r="A26" s="30" t="s">
+        <v>75</v>
       </c>
       <c r="B26" s="62"/>
       <c r="C26" s="24"/>
@@ -3071,7 +3085,7 @@
       <c r="AF26" s="12"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C26:AG26)</f>
         <v>0</v>
       </c>
       <c r="AI26" s="38"/>
@@ -3085,17 +3099,15 @@
         <v>71</v>
       </c>
       <c r="AN26" s="1">
-        <f>AH7-AH8</f>
+        <f>AH8-AH9</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>10</v>
-      </c>
+      <c r="A27" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="63"/>
       <c r="C27" s="24"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3144,10 +3156,12 @@
       <c r="AN27" s="1"/>
     </row>
     <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="62"/>
+      <c r="A28" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>10</v>
+      </c>
       <c r="C28" s="24"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3192,10 +3206,10 @@
       <c r="AL28"/>
     </row>
     <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="27"/>
+      <c r="A29" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="63"/>
       <c r="C29" s="24"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3228,7 +3242,7 @@
       <c r="AF29" s="12"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="38">
-        <f>SUM(C29:AG29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI29" s="38"/>
@@ -3238,15 +3252,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL29"/>
-      <c r="AU29"/>
     </row>
     <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>12</v>
-      </c>
+      <c r="A30" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="27"/>
       <c r="C30" s="24"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -3279,7 +3290,7 @@
       <c r="AF30" s="12"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C30:AG30)</f>
         <v>0</v>
       </c>
       <c r="AI30" s="38"/>
@@ -3289,12 +3300,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL30"/>
+      <c r="AU30"/>
     </row>
     <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="61"/>
+        <v>42</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>12</v>
+      </c>
       <c r="C31" s="24"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3340,9 +3354,9 @@
     </row>
     <row r="32" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="61"/>
+        <v>43</v>
+      </c>
+      <c r="B32" s="62"/>
       <c r="C32" s="24"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3384,12 +3398,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL32"/>
     </row>
     <row r="33" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="61"/>
+      <c r="A33" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="62"/>
       <c r="C33" s="24"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3422,7 +3437,7 @@
       <c r="AF33" s="12"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="38">
-        <f>SUM(C33:AG33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI33" s="38"/>
@@ -3433,8 +3448,8 @@
       </c>
     </row>
     <row r="34" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="29" t="s">
-        <v>59</v>
+      <c r="A34" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="B34" s="62"/>
       <c r="C34" s="24"/>
@@ -3443,7 +3458,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="5"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3475,16 +3490,15 @@
       <c r="AI34" s="38"/>
       <c r="AJ34" s="14"/>
       <c r="AK34" s="40" t="e">
-        <f>AH34/AI34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL34"/>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="35" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="48"/>
+        <v>59</v>
+      </c>
+      <c r="B35" s="63"/>
       <c r="C35" s="24"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3530,18 +3544,16 @@
     </row>
     <row r="36" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="60" t="s">
-        <v>14</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B36" s="48"/>
       <c r="C36" s="24"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -3567,21 +3579,24 @@
       <c r="AF36" s="12"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C36:AG36)</f>
         <v>0</v>
       </c>
       <c r="AI36" s="38"/>
       <c r="AJ36" s="14"/>
       <c r="AK36" s="40" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f>AH36/AI36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL36"/>
     </row>
     <row r="37" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="61"/>
+        <v>13</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>14</v>
+      </c>
       <c r="C37" s="24"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3626,7 +3641,7 @@
     </row>
     <row r="38" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="62"/>
       <c r="C38" s="24"/>
@@ -3672,11 +3687,11 @@
       </c>
     </row>
     <row r="39" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="52"/>
+      <c r="A39" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="63"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -3712,34 +3727,32 @@
         <v>0</v>
       </c>
       <c r="AI39" s="38"/>
-      <c r="AJ39" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="AJ39" s="14"/>
       <c r="AK39" s="40" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="18" customHeight="1" thickBot="1">
-      <c r="A40" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
+    <row r="40" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="53"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
@@ -3755,27 +3768,76 @@
       <c r="AD40" s="12"/>
       <c r="AE40" s="12"/>
       <c r="AF40" s="12"/>
-      <c r="AG40" s="20"/>
+      <c r="AG40" s="19"/>
       <c r="AH40" s="38">
-        <f t="shared" ref="AH40" si="6">SUM(C40:AG40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI40" s="38"/>
-      <c r="AJ40" s="16"/>
+      <c r="AJ40" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="AK40" s="40" t="e">
-        <f t="shared" ref="AK40" si="7">AH40/AI40</f>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" ht="18" customHeight="1" thickBot="1">
+      <c r="A41" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="50"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="38">
+        <f t="shared" ref="AH41" si="6">SUM(C41:AG41)</f>
+        <v>0</v>
+      </c>
+      <c r="AI41" s="38"/>
+      <c r="AJ41" s="16"/>
+      <c r="AK41" s="40" t="e">
+        <f t="shared" ref="AK41" si="7">AH41/AI41</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:AH2"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B31:B35"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B8:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
@@ -1045,6 +1045,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,9 +1082,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1388,19 +1388,19 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AU41"/>
+  <dimension ref="A1:AT41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AM6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AD4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AT15" sqref="AT15"/>
+      <selection pane="bottomRight" activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="29.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="10.625" hidden="1" customWidth="1"/>
     <col min="3" max="11" width="5.625" customWidth="1"/>
     <col min="12" max="29" width="5.625" hidden="1" customWidth="1"/>
     <col min="30" max="33" width="5.625" customWidth="1"/>
@@ -1415,91 +1415,89 @@
     <col min="43" max="43" width="13.125" style="21" customWidth="1"/>
     <col min="44" max="44" width="14.125" style="21" bestFit="1" customWidth="1"/>
     <col min="45" max="46" width="16.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.625" style="21" customWidth="1"/>
-    <col min="48" max="48" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:46" ht="15" customHeight="1">
+      <c r="A1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="58"/>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
     </row>
-    <row r="2" spans="1:47" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="60"/>
+    <row r="2" spans="1:46" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="61"/>
       <c r="AI2" s="26"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="26"/>
     </row>
-    <row r="3" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="3" spans="1:46" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
@@ -1611,13 +1609,12 @@
       <c r="AK3" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="AU3"/>
-    </row>
-    <row r="4" spans="1:47" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="4" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="23"/>
@@ -1687,11 +1684,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="24"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1741,14 +1738,32 @@
         <f>AI9+AI21</f>
         <v>0</v>
       </c>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="43"/>
-    </row>
-    <row r="6" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="AO5" s="43" t="e">
+        <f>AI9/(AI9+AI21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP5" s="43" t="e">
+        <f>AI5/AI4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ5" s="43" t="e">
+        <f>(AI8-AN25)/AI5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR5" s="43" t="e">
+        <f>AI13/AI9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS5" s="42" t="e">
+        <f>AI14/AI13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT5" s="43" t="e">
+        <f>AI34/AI9</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -1827,7 +1842,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
@@ -1906,11 +1921,11 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="65" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="24"/>
@@ -1982,11 +1997,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="24"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2032,19 +2047,40 @@
       <c r="AM9" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="43"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
-    </row>
-    <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="AN9" s="42" t="e">
+        <f>AI35/AI34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO9" s="43" t="e">
+        <f>AI15/AI9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP9" s="42" t="e">
+        <f>AI16/AI15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ9" s="43" t="e">
+        <f>AI17/AI9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR9" s="43" t="e">
+        <f>AI11/AI9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS9" s="42" t="e">
+        <f>AI12/AI9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT9" s="42" t="e">
+        <f>AI23/AI21</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="65"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="24"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2119,11 +2155,11 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="24"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2198,11 +2234,11 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="24"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2270,11 +2306,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="24"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2320,25 +2356,40 @@
       <c r="AM13" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AN13" s="46"/>
-      <c r="AO13" s="43"/>
-      <c r="AP13" s="46"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="42"/>
+      <c r="AN13" s="46">
+        <f>AI29</f>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="43" t="e">
+        <f>(AI31+AI32+AI33)/AI9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP13" s="46" t="e">
+        <f>AI30/(AI31+AI32+AI33)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ13" s="44" t="e">
+        <f>AI19/AI9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR13" s="42" t="e">
+        <f>AI20/AI19</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AS13" s="42">
         <f>(AI9+AI21)*AN27/30</f>
         <v>0</v>
       </c>
-      <c r="AT13" s="67">
+      <c r="AT13" s="55">
         <f>AS13*AN21*0.0075</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="24"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2408,16 +2459,16 @@
         <f>AN22</f>
         <v>0</v>
       </c>
-      <c r="AT14" s="67">
+      <c r="AT14" s="55">
         <f>AS14*AN21*0.0075</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="65"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="24"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2486,11 +2537,11 @@
       <c r="AS15" s="44"/>
       <c r="AT15" s="44"/>
     </row>
-    <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="66"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="24"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2546,7 +2597,7 @@
       <c r="AS16" s="34"/>
       <c r="AT16" s="34"/>
     </row>
-    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="30" t="s">
         <v>50</v>
       </c>
@@ -2607,7 +2658,7 @@
       <c r="AS17" s="42"/>
       <c r="AT17" s="46"/>
     </row>
-    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="29" t="s">
         <v>49</v>
       </c>
@@ -2670,7 +2721,7 @@
       <c r="AS18" s="42"/>
       <c r="AT18" s="46"/>
     </row>
-    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="29" t="s">
         <v>81</v>
       </c>
@@ -2713,7 +2764,7 @@
       <c r="AI19" s="38"/>
       <c r="AJ19" s="14"/>
       <c r="AK19" s="40" t="e">
-        <f t="shared" si="1"/>
+        <f>AH19/AI19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL19"/>
@@ -2731,7 +2782,7 @@
       <c r="AS19" s="44"/>
       <c r="AT19" s="44"/>
     </row>
-    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="29" t="s">
         <v>82</v>
       </c>
@@ -2779,11 +2830,11 @@
       </c>
       <c r="AL20"/>
     </row>
-    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="24"/>
@@ -2833,11 +2884,11 @@
       </c>
       <c r="AN21" s="1"/>
     </row>
-    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="62"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="24"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2887,13 +2938,12 @@
         <f>AH40-AH9-AH21-AH27</f>
         <v>0</v>
       </c>
-      <c r="AU22"/>
-    </row>
-    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="23" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="62"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="24"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2941,11 +2991,11 @@
       </c>
       <c r="AN23" s="1"/>
     </row>
-    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="62"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="24"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2996,11 +3046,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="62"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="24"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -3048,11 +3098,11 @@
       </c>
       <c r="AN25" s="1"/>
     </row>
-    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="62"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="24"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -3103,11 +3153,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="63"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="24"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3155,11 +3205,11 @@
       </c>
       <c r="AN27" s="1"/>
     </row>
-    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="62" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="24"/>
@@ -3205,11 +3255,11 @@
       </c>
       <c r="AL28"/>
     </row>
-    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="63"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="24"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3253,7 +3303,7 @@
       </c>
       <c r="AL29"/>
     </row>
-    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="30" t="s">
         <v>51</v>
       </c>
@@ -3300,13 +3350,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL30"/>
-      <c r="AU30"/>
-    </row>
-    <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="31" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="24"/>
@@ -3352,11 +3401,11 @@
       </c>
       <c r="AL31"/>
     </row>
-    <row r="32" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="62"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="24"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3404,7 +3453,7 @@
       <c r="A33" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="62"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="24"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3451,7 +3500,7 @@
       <c r="A34" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="62"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="24"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3498,7 +3547,7 @@
       <c r="A35" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="63"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="24"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3594,7 +3643,7 @@
       <c r="A37" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="62" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="24"/>
@@ -3643,7 +3692,7 @@
       <c r="A38" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="62"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="24"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3690,7 +3739,7 @@
       <c r="A39" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="63"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="24"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>

--- a/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>林勇</t>
   </si>
@@ -339,12 +339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>终身免费保险台次（含赠送）</t>
-  </si>
-  <si>
-    <t>终身免费保险总金额</t>
-  </si>
-  <si>
     <t>推荐二手车评估数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,6 +348,18 @@
   </si>
   <si>
     <t>留微信客户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中老客户转介绍交车台次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终身免费保养台次（含赠送）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终身免费保养总金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,9 +367,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0&quot;.&quot;0,&quot;万&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -879,7 +886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,6 +1089,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1388,13 +1398,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AT41"/>
+  <dimension ref="A1:AT42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AD4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AM12" sqref="AM12"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1649,7 +1659,7 @@
       <c r="AF4" s="12"/>
       <c r="AG4" s="18"/>
       <c r="AH4" s="38">
-        <f t="shared" ref="AH4:AH40" si="0">SUM(C4:AG4)</f>
+        <f t="shared" ref="AH4:AH41" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="38"/>
@@ -1727,45 +1737,24 @@
       <c r="AI5" s="38"/>
       <c r="AJ5" s="14"/>
       <c r="AK5" s="40" t="e">
-        <f t="shared" ref="AK5:AK40" si="1">AH5/AI5</f>
+        <f t="shared" ref="AK5:AK41" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5"/>
       <c r="AM5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AN5" s="42">
-        <f>AI9+AI21</f>
-        <v>0</v>
-      </c>
-      <c r="AO5" s="43" t="e">
-        <f>AI9/(AI9+AI21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP5" s="43" t="e">
-        <f>AI5/AI4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ5" s="43" t="e">
-        <f>(AI8-AN25)/AI5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR5" s="43" t="e">
-        <f>AI13/AI9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS5" s="42" t="e">
-        <f>AI14/AI13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT5" s="43" t="e">
-        <f>AI34/AI9</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="43"/>
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="24"/>
@@ -1814,11 +1803,11 @@
         <v>34</v>
       </c>
       <c r="AN6" s="42">
-        <f>AH9+AH21</f>
+        <f>AH9+AH22</f>
         <v>0</v>
       </c>
       <c r="AO6" s="43" t="e">
-        <f>AH9/(AH9+AH21)</f>
+        <f>AH9/(AH9+AH22)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP6" s="43" t="e">
@@ -1830,15 +1819,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR6" s="43" t="e">
-        <f>AH13/AH9</f>
+        <f>AH14/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS6" s="42" t="e">
-        <f>AH14/AH13</f>
+        <f>AH15/AH14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT6" s="43" t="e">
-        <f>AH34/AH9</f>
+        <f>AH35/AH9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2034,7 +2023,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="38">
-        <f>SUM(C9:AG9)</f>
+        <f t="shared" ref="AH9:AH14" si="3">SUM(C9:AG9)</f>
         <v>0</v>
       </c>
       <c r="AI9" s="38"/>
@@ -2047,38 +2036,17 @@
       <c r="AM9" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AN9" s="42" t="e">
-        <f>AI35/AI34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO9" s="43" t="e">
-        <f>AI15/AI9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP9" s="42" t="e">
-        <f>AI16/AI15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ9" s="43" t="e">
-        <f>AI17/AI9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR9" s="43" t="e">
-        <f>AI11/AI9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS9" s="42" t="e">
-        <f>AI12/AI9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT9" s="42" t="e">
-        <f>AI23/AI21</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="43"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="24"/>
@@ -2113,7 +2081,7 @@
       <c r="AF10" s="12"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="38">
-        <f>SUM(C10:AG10)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI10" s="38"/>
@@ -2127,37 +2095,37 @@
         <v>34</v>
       </c>
       <c r="AN10" s="42" t="e">
-        <f>AH35/AH34</f>
+        <f>AH36/AH35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="43" t="e">
-        <f>AH15/AH9</f>
+        <f>AH16/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" s="42" t="e">
-        <f>AH16/AH15</f>
+        <f>AH17/AH16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" s="43" t="e">
-        <f>AH17/AH9</f>
+        <f>AH18/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" s="43" t="e">
-        <f>AH11/AH9</f>
+        <f>AH12/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10" s="42" t="e">
-        <f>AH12/AH9</f>
+        <f>AH13/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT10" s="42" t="e">
-        <f>AH23/AH21</f>
+        <f>AH24/AH22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="24"/>
@@ -2192,7 +2160,7 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="38">
-        <f>SUM(C11:AG11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI11" s="38"/>
@@ -2206,37 +2174,37 @@
         <v>62</v>
       </c>
       <c r="AN11" s="47" t="e">
-        <f t="shared" ref="AN11:AT11" si="3">AN10/AN9</f>
+        <f t="shared" ref="AN11:AT11" si="4">AN10/AN9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO11" s="47" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP11" s="47" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ11" s="47" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR11" s="47" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS11" s="47" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT11" s="47" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="24"/>
@@ -2271,7 +2239,7 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="38">
-        <f>SUM(C12:AG12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI12" s="38"/>
@@ -2307,8 +2275,8 @@
       </c>
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="30" t="s">
-        <v>45</v>
+      <c r="A13" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="24"/>
@@ -2343,7 +2311,7 @@
       <c r="AF13" s="12"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="38">
-        <f>SUM(C13:AG13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI13" s="38"/>
@@ -2356,28 +2324,13 @@
       <c r="AM13" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AN13" s="46">
-        <f>AI29</f>
-        <v>0</v>
-      </c>
-      <c r="AO13" s="43" t="e">
-        <f>(AI31+AI32+AI33)/AI9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP13" s="46" t="e">
-        <f>AI30/(AI31+AI32+AI33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ13" s="44" t="e">
-        <f>AI19/AI9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR13" s="42" t="e">
-        <f>AI20/AI19</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AN13" s="46"/>
+      <c r="AO13" s="43"/>
+      <c r="AP13" s="46"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="42"/>
       <c r="AS13" s="42">
-        <f>(AI9+AI21)*AN27/30</f>
+        <f>(AI9+AI22)*AN27/30</f>
         <v>0</v>
       </c>
       <c r="AT13" s="55">
@@ -2386,8 +2339,8 @@
       </c>
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="29" t="s">
-        <v>46</v>
+      <c r="A14" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="24"/>
@@ -2422,7 +2375,7 @@
       <c r="AF14" s="12"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI14" s="38"/>
@@ -2436,23 +2389,23 @@
         <v>34</v>
       </c>
       <c r="AN14" s="46">
-        <f>AH29</f>
+        <f>AH30</f>
         <v>0</v>
       </c>
       <c r="AO14" s="43" t="e">
-        <f>(AH31+AH32+AH33)/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP14" s="46" t="e">
-        <f>AH30/(AH31+AH32+AH33)</f>
+        <f>(AH32+AH33+AH34)/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP14" s="68" t="e">
+        <f>AH31/(AH32+AH33+AH34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ14" s="44" t="e">
-        <f>AH19/AH9</f>
+        <f>AH20/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR14" s="42" t="e">
-        <f>AH20/AH19</f>
+        <f>AH21/AH20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS14" s="42">
@@ -2465,8 +2418,8 @@
       </c>
     </row>
     <row r="15" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="30" t="s">
-        <v>48</v>
+      <c r="A15" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="24"/>
@@ -2501,7 +2454,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="38">
-        <f>SUM(C15:AG15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI15" s="38"/>
@@ -2538,10 +2491,10 @@
       <c r="AT15" s="44"/>
     </row>
     <row r="16" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="67"/>
+      <c r="A16" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="66"/>
       <c r="C16" s="24"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2574,7 +2527,7 @@
       <c r="AF16" s="12"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C16:AG16)</f>
         <v>0</v>
       </c>
       <c r="AI16" s="38"/>
@@ -2598,10 +2551,10 @@
       <c r="AT16" s="34"/>
     </row>
     <row r="17" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="32"/>
+      <c r="A17" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="67"/>
       <c r="C17" s="24"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2634,7 +2587,7 @@
       <c r="AF17" s="12"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="38">
-        <f>SUM(C17:AG17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI17" s="38"/>
@@ -2648,7 +2601,7 @@
         <v>33</v>
       </c>
       <c r="AN17" s="46">
-        <f>AI14+AI16+AI12*0.5+AI26+AI30+AI18*0.3+AI36</f>
+        <f>AI15+AI17+AI13*0.5+AI27+AI31+AI19*0.3+AI37</f>
         <v>0</v>
       </c>
       <c r="AO17" s="43"/>
@@ -2659,12 +2612,10 @@
       <c r="AT17" s="46"/>
     </row>
     <row r="18" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="A18" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="32"/>
       <c r="C18" s="24"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2711,7 +2662,7 @@
         <v>34</v>
       </c>
       <c r="AN18" s="46">
-        <f>AH18*0.3+AH14+AH16+AH12*0.5+AH26+AH30+AH36</f>
+        <f>AH19*0.3+AH15+AH17+AH13*0.5+AH27+AH31+AH37</f>
         <v>0</v>
       </c>
       <c r="AO18" s="43"/>
@@ -2723,9 +2674,11 @@
     </row>
     <row r="19" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="49"/>
+        <v>49</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>7</v>
+      </c>
       <c r="C19" s="24"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2758,13 +2711,13 @@
       <c r="AF19" s="12"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="38">
-        <f t="shared" ref="AH19:AH20" si="4">SUM(C19:AG19)</f>
+        <f>SUM(C19:AG19)</f>
         <v>0</v>
       </c>
       <c r="AI19" s="38"/>
       <c r="AJ19" s="14"/>
       <c r="AK19" s="40" t="e">
-        <f>AH19/AI19</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL19"/>
@@ -2784,7 +2737,7 @@
     </row>
     <row r="20" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="24"/>
@@ -2819,24 +2772,22 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AH20:AH21" si="5">SUM(C20:AG20)</f>
         <v>0</v>
       </c>
       <c r="AI20" s="38"/>
       <c r="AJ20" s="14"/>
       <c r="AK20" s="40" t="e">
-        <f t="shared" si="1"/>
+        <f>AH20/AI20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL20"/>
     </row>
     <row r="21" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>8</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B21" s="49"/>
       <c r="C21" s="24"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2869,7 +2820,7 @@
       <c r="AF21" s="12"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI21" s="38"/>
@@ -2886,9 +2837,11 @@
     </row>
     <row r="22" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="63"/>
+        <v>52</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>8</v>
+      </c>
       <c r="C22" s="24"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2935,13 +2888,13 @@
         <v>69</v>
       </c>
       <c r="AN22" s="1">
-        <f>AH40-AH9-AH21-AH27</f>
+        <f>AH41-AH9-AH22-AH28</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="30" t="s">
-        <v>26</v>
+      <c r="A23" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="B23" s="63"/>
       <c r="C23" s="24"/>
@@ -2976,7 +2929,7 @@
       <c r="AF23" s="12"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="38">
-        <f>SUM(C23:AG23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI23" s="38"/>
@@ -2992,8 +2945,8 @@
       <c r="AN23" s="1"/>
     </row>
     <row r="24" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="29" t="s">
-        <v>53</v>
+      <c r="A24" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="B24" s="63"/>
       <c r="C24" s="24"/>
@@ -3028,7 +2981,7 @@
       <c r="AF24" s="12"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="38">
-        <f t="shared" ref="AH24" si="5">SUM(C24:AG24)</f>
+        <f>SUM(C24:AG24)</f>
         <v>0</v>
       </c>
       <c r="AI24" s="38"/>
@@ -3047,8 +3000,8 @@
       </c>
     </row>
     <row r="25" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="30" t="s">
-        <v>54</v>
+      <c r="A25" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="B25" s="63"/>
       <c r="C25" s="24"/>
@@ -3083,7 +3036,7 @@
       <c r="AF25" s="12"/>
       <c r="AG25" s="19"/>
       <c r="AH25" s="38">
-        <f>SUM(C25:AG25)</f>
+        <f t="shared" ref="AH25" si="6">SUM(C25:AG25)</f>
         <v>0</v>
       </c>
       <c r="AI25" s="38"/>
@@ -3100,7 +3053,7 @@
     </row>
     <row r="26" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B26" s="63"/>
       <c r="C26" s="24"/>
@@ -3154,10 +3107,10 @@
       </c>
     </row>
     <row r="27" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="64"/>
+      <c r="A27" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="63"/>
       <c r="C27" s="24"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3190,7 +3143,7 @@
       <c r="AF27" s="12"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C27:AG27)</f>
         <v>0</v>
       </c>
       <c r="AI27" s="38"/>
@@ -3206,12 +3159,10 @@
       <c r="AN27" s="1"/>
     </row>
     <row r="28" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="62" t="s">
-        <v>10</v>
-      </c>
+      <c r="A28" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="64"/>
       <c r="C28" s="24"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3256,10 +3207,12 @@
       <c r="AL28"/>
     </row>
     <row r="29" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="64"/>
+      <c r="A29" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>10</v>
+      </c>
       <c r="C29" s="24"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3304,10 +3257,10 @@
       <c r="AL29"/>
     </row>
     <row r="30" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="27"/>
+      <c r="A30" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="64"/>
       <c r="C30" s="24"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -3340,7 +3293,7 @@
       <c r="AF30" s="12"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="38">
-        <f>SUM(C30:AG30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI30" s="38"/>
@@ -3352,12 +3305,10 @@
       <c r="AL30"/>
     </row>
     <row r="31" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>12</v>
-      </c>
+      <c r="A31" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="27"/>
       <c r="C31" s="24"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3390,7 +3341,7 @@
       <c r="AF31" s="12"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C31:AG31)</f>
         <v>0</v>
       </c>
       <c r="AI31" s="38"/>
@@ -3403,9 +3354,11 @@
     </row>
     <row r="32" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="63"/>
+        <v>42</v>
+      </c>
+      <c r="B32" s="62" t="s">
+        <v>12</v>
+      </c>
       <c r="C32" s="24"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3451,7 +3404,7 @@
     </row>
     <row r="33" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="63"/>
       <c r="C33" s="24"/>
@@ -3495,10 +3448,11 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL33"/>
     </row>
     <row r="34" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="30" t="s">
-        <v>58</v>
+      <c r="A34" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="B34" s="63"/>
       <c r="C34" s="24"/>
@@ -3533,7 +3487,7 @@
       <c r="AF34" s="12"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="38">
-        <f>SUM(C34:AG34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI34" s="38"/>
@@ -3544,17 +3498,17 @@
       </c>
     </row>
     <row r="35" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="64"/>
+      <c r="A35" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="63"/>
       <c r="C35" s="24"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="5"/>
+      <c r="I35" s="4"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3586,16 +3540,15 @@
       <c r="AI35" s="38"/>
       <c r="AJ35" s="14"/>
       <c r="AK35" s="40" t="e">
-        <f>AH35/AI35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL35"/>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="36" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="48"/>
+        <v>59</v>
+      </c>
+      <c r="B36" s="64"/>
       <c r="C36" s="24"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3641,18 +3594,16 @@
     </row>
     <row r="37" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="62" t="s">
-        <v>14</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B37" s="48"/>
       <c r="C37" s="24"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -3678,21 +3629,24 @@
       <c r="AF37" s="12"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C37:AG37)</f>
         <v>0</v>
       </c>
       <c r="AI37" s="38"/>
       <c r="AJ37" s="14"/>
       <c r="AK37" s="40" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f>AH37/AI37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL37"/>
     </row>
     <row r="38" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="63"/>
+        <v>13</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>14</v>
+      </c>
       <c r="C38" s="24"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3737,9 +3691,9 @@
     </row>
     <row r="39" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="64"/>
+        <v>15</v>
+      </c>
+      <c r="B39" s="63"/>
       <c r="C39" s="24"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3783,11 +3737,11 @@
       </c>
     </row>
     <row r="40" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="52"/>
+      <c r="A40" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -3823,34 +3777,32 @@
         <v>0</v>
       </c>
       <c r="AI40" s="38"/>
-      <c r="AJ40" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="AJ40" s="14"/>
       <c r="AK40" s="40" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="18" customHeight="1" thickBot="1">
-      <c r="A41" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
+    <row r="41" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="53"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
@@ -3866,27 +3818,76 @@
       <c r="AD41" s="12"/>
       <c r="AE41" s="12"/>
       <c r="AF41" s="12"/>
-      <c r="AG41" s="20"/>
+      <c r="AG41" s="19"/>
       <c r="AH41" s="38">
-        <f t="shared" ref="AH41" si="6">SUM(C41:AG41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI41" s="38"/>
-      <c r="AJ41" s="16"/>
+      <c r="AJ41" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="AK41" s="40" t="e">
-        <f t="shared" ref="AK41" si="7">AH41/AI41</f>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" ht="18" customHeight="1" thickBot="1">
+      <c r="A42" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="50"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="20"/>
+      <c r="AH42" s="38">
+        <f t="shared" ref="AH42" si="7">SUM(C42:AG42)</f>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="38"/>
+      <c r="AJ42" s="16"/>
+      <c r="AK42" s="40" t="e">
+        <f t="shared" ref="AK42" si="8">AH42/AI42</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:AH2"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B32:B36"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B8:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="销售" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
   <si>
     <t>林勇</t>
   </si>
@@ -360,6 +360,62 @@
   </si>
   <si>
     <t>终身免费保养总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中他品牌新增订单台次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他品牌交车台次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他品牌单车毛利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他品牌单车综合毛利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他品牌留单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他品牌销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售台次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单车毛利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合毛利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均单台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +428,7 @@
     <numFmt numFmtId="177" formatCode="0&quot;.&quot;0,&quot;万&quot;"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,8 +507,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,8 +578,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -880,13 +951,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1055,6 +1137,30 @@
     <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,9 +1195,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1398,13 +1501,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AT42"/>
+  <dimension ref="A1:AT46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1428,81 +1531,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="58"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="66"/>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
     </row>
     <row r="2" spans="1:46" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="61"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="69"/>
       <c r="AI2" s="26"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="26"/>
@@ -1624,7 +1727,7 @@
       <c r="A4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="71" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="23"/>
@@ -1659,7 +1762,7 @@
       <c r="AF4" s="12"/>
       <c r="AG4" s="18"/>
       <c r="AH4" s="38">
-        <f t="shared" ref="AH4:AH41" si="0">SUM(C4:AG4)</f>
+        <f t="shared" ref="AH4:AH45" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="38"/>
@@ -1698,7 +1801,7 @@
       <c r="A5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="24"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1737,7 +1840,7 @@
       <c r="AI5" s="38"/>
       <c r="AJ5" s="14"/>
       <c r="AK5" s="40" t="e">
-        <f t="shared" ref="AK5:AK41" si="1">AH5/AI5</f>
+        <f t="shared" ref="AK5:AK45" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5"/>
@@ -1803,11 +1906,11 @@
         <v>34</v>
       </c>
       <c r="AN6" s="42">
-        <f>AH9+AH22</f>
+        <f>AH9+AH26</f>
         <v>0</v>
       </c>
       <c r="AO6" s="43" t="e">
-        <f>AH9/(AH9+AH22)</f>
+        <f>AH9/(AH9+AH26)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP6" s="43" t="e">
@@ -1815,19 +1918,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ6" s="43" t="e">
-        <f>(AH8-AN25)/AH5</f>
+        <f>(AH8-AN29)/AH5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR6" s="43" t="e">
-        <f>AH14/AH9</f>
+        <f>AH18/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS6" s="42" t="e">
-        <f>AH15/AH14</f>
+        <f>AH19/AH18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT6" s="43" t="e">
-        <f>AH35/AH9</f>
+        <f>AH39/AH9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1914,7 +2017,7 @@
       <c r="A8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="73" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="24"/>
@@ -1990,7 +2093,7 @@
       <c r="A9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="24"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2023,7 +2126,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="38">
-        <f t="shared" ref="AH9:AH14" si="3">SUM(C9:AG9)</f>
+        <f t="shared" ref="AH9:AH18" si="3">SUM(C9:AG9)</f>
         <v>0</v>
       </c>
       <c r="AI9" s="38"/>
@@ -2048,7 +2151,7 @@
       <c r="A10" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="66"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="24"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2095,39 +2198,39 @@
         <v>34</v>
       </c>
       <c r="AN10" s="42" t="e">
-        <f>AH36/AH35</f>
+        <f>AH40/AH39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="43" t="e">
+        <f>AH20/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP10" s="42" t="e">
+        <f>AH21/AH20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ10" s="43" t="e">
+        <f>AH22/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR10" s="43" t="e">
         <f>AH16/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP10" s="42" t="e">
-        <f>AH17/AH16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ10" s="43" t="e">
-        <f>AH18/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR10" s="43" t="e">
-        <f>AH12/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AS10" s="42" t="e">
-        <f>AH13/AH9</f>
+        <f>AH17/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT10" s="42" t="e">
-        <f>AH24/AH22</f>
+        <f>AH28/AH26</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="66"/>
+        <v>87</v>
+      </c>
+      <c r="B11" s="74"/>
       <c r="C11" s="24"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2204,9 +2307,9 @@
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="66"/>
+        <v>88</v>
+      </c>
+      <c r="B12" s="74"/>
       <c r="C12" s="24"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2276,9 +2379,9 @@
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="66"/>
+        <v>89</v>
+      </c>
+      <c r="B13" s="74"/>
       <c r="C13" s="24"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2330,19 +2433,19 @@
       <c r="AQ13" s="44"/>
       <c r="AR13" s="42"/>
       <c r="AS13" s="42">
-        <f>(AI9+AI22)*AN27/30</f>
+        <f>(AI9+AI26)*AN31/30</f>
         <v>0</v>
       </c>
       <c r="AT13" s="55">
-        <f>AS13*AN21*0.0075</f>
+        <f>AS13*AN25*0.0075</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="66"/>
+      <c r="A14" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="74"/>
       <c r="C14" s="24"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2389,39 +2492,39 @@
         <v>34</v>
       </c>
       <c r="AN14" s="46">
-        <f>AH30</f>
+        <f>AH34</f>
         <v>0</v>
       </c>
       <c r="AO14" s="43" t="e">
-        <f>(AH32+AH33+AH34)/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP14" s="68" t="e">
-        <f>AH31/(AH32+AH33+AH34)</f>
+        <f>(AH36+AH37+AH38)/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP14" s="56" t="e">
+        <f>AH35/(AH36+AH37+AH38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ14" s="44" t="e">
-        <f>AH20/AH9</f>
+        <f>AH24/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR14" s="42" t="e">
-        <f>AH21/AH20</f>
+        <f>AH25/AH24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS14" s="42">
-        <f>AN22</f>
+        <f>AN26</f>
         <v>0</v>
       </c>
       <c r="AT14" s="55">
-        <f>AS14*AN21*0.0075</f>
+        <f>AS14*AN25*0.0075</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="66"/>
+        <v>84</v>
+      </c>
+      <c r="B15" s="74"/>
       <c r="C15" s="24"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2454,7 +2557,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI15" s="38"/>
@@ -2491,10 +2594,10 @@
       <c r="AT15" s="44"/>
     </row>
     <row r="16" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="66"/>
+      <c r="A16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="74"/>
       <c r="C16" s="24"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2527,7 +2630,7 @@
       <c r="AF16" s="12"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="38">
-        <f>SUM(C16:AG16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI16" s="38"/>
@@ -2552,9 +2655,9 @@
     </row>
     <row r="17" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="67"/>
+        <v>25</v>
+      </c>
+      <c r="B17" s="74"/>
       <c r="C17" s="24"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2587,7 +2690,7 @@
       <c r="AF17" s="12"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI17" s="38"/>
@@ -2601,7 +2704,7 @@
         <v>33</v>
       </c>
       <c r="AN17" s="46">
-        <f>AI15+AI17+AI13*0.5+AI27+AI31+AI19*0.3+AI37</f>
+        <f>AI19+AI21+AI17*0.5+AI31+AI35+AI23*0.3+AI41</f>
         <v>0</v>
       </c>
       <c r="AO17" s="43"/>
@@ -2613,9 +2716,9 @@
     </row>
     <row r="18" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="32"/>
+        <v>45</v>
+      </c>
+      <c r="B18" s="74"/>
       <c r="C18" s="24"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2648,7 +2751,7 @@
       <c r="AF18" s="12"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="38">
-        <f>SUM(C18:AG18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI18" s="38"/>
@@ -2662,7 +2765,7 @@
         <v>34</v>
       </c>
       <c r="AN18" s="46">
-        <f>AH19*0.3+AH15+AH17+AH13*0.5+AH27+AH31+AH37</f>
+        <f>AH23*0.3+AH19+AH21+AH17*0.5+AH31+AH35+AH41</f>
         <v>0</v>
       </c>
       <c r="AO18" s="43"/>
@@ -2674,11 +2777,9 @@
     </row>
     <row r="19" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>7</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B19" s="74"/>
       <c r="C19" s="24"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2711,7 +2812,7 @@
       <c r="AF19" s="12"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="38">
-        <f>SUM(C19:AG19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI19" s="38"/>
@@ -2736,10 +2837,10 @@
       <c r="AT19" s="44"/>
     </row>
     <row r="20" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="49"/>
+      <c r="A20" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="74"/>
       <c r="C20" s="24"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2772,22 +2873,29 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="38">
-        <f t="shared" ref="AH20:AH21" si="5">SUM(C20:AG20)</f>
+        <f>SUM(C20:AG20)</f>
         <v>0</v>
       </c>
       <c r="AI20" s="38"/>
       <c r="AJ20" s="14"/>
       <c r="AK20" s="40" t="e">
-        <f>AH20/AI20</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL20"/>
+      <c r="AM20" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="62"/>
+      <c r="AP20" s="62"/>
+      <c r="AQ20" s="63"/>
     </row>
     <row r="21" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="49"/>
+        <v>47</v>
+      </c>
+      <c r="B21" s="75"/>
       <c r="C21" s="24"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2820,7 +2928,7 @@
       <c r="AF21" s="12"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI21" s="38"/>
@@ -2830,18 +2938,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL21"/>
-      <c r="AM21" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN21" s="1"/>
+      <c r="AM21" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN21" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO21" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP21" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ21" s="60" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="22" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>8</v>
-      </c>
+      <c r="A22" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="32"/>
       <c r="C22" s="24"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2874,7 +2991,7 @@
       <c r="AF22" s="12"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C22:AG22)</f>
         <v>0</v>
       </c>
       <c r="AI22" s="38"/>
@@ -2884,19 +3001,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL22"/>
-      <c r="AM22" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN22" s="1">
-        <f>AH41-AH9-AH22-AH28</f>
-        <v>0</v>
-      </c>
+      <c r="AM22" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="42"/>
     </row>
     <row r="23" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="63"/>
+        <v>49</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>7</v>
+      </c>
       <c r="C23" s="24"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2929,7 +3048,7 @@
       <c r="AF23" s="12"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C23:AG23)</f>
         <v>0</v>
       </c>
       <c r="AI23" s="38"/>
@@ -2939,16 +3058,31 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL23"/>
-      <c r="AM23" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN23" s="1"/>
+      <c r="AM23" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN23" s="42">
+        <f>AH12</f>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="42">
+        <f>AH13</f>
+        <v>0</v>
+      </c>
+      <c r="AP23" s="42">
+        <f>AH14</f>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="42" t="e">
+        <f>(AH13+AH14)/AH12</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="24" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="63"/>
+      <c r="A24" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="49"/>
       <c r="C24" s="24"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2981,29 +3115,41 @@
       <c r="AF24" s="12"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="38">
-        <f>SUM(C24:AG24)</f>
+        <f t="shared" ref="AH24:AH25" si="5">SUM(C24:AG24)</f>
         <v>0</v>
       </c>
       <c r="AI24" s="38"/>
       <c r="AJ24" s="14"/>
       <c r="AK24" s="40" t="e">
-        <f t="shared" si="1"/>
+        <f>AH24/AI24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL24"/>
-      <c r="AM24" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN24" s="1">
-        <f>AN22+AN23</f>
-        <v>0</v>
+      <c r="AM24" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN24" s="42" t="e">
+        <f>AN23/AN22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO24" s="42" t="e">
+        <f t="shared" ref="AO24:AQ24" si="6">AO23/AO22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP24" s="42" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ24" s="42" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="63"/>
+        <v>86</v>
+      </c>
+      <c r="B25" s="49"/>
       <c r="C25" s="24"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -3036,7 +3182,7 @@
       <c r="AF25" s="12"/>
       <c r="AG25" s="19"/>
       <c r="AH25" s="38">
-        <f t="shared" ref="AH25" si="6">SUM(C25:AG25)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI25" s="38"/>
@@ -3046,16 +3192,18 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL25"/>
-      <c r="AM25" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN25" s="1"/>
+      <c r="AM25" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN25" s="58"/>
     </row>
     <row r="26" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="63"/>
+      <c r="A26" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>8</v>
+      </c>
       <c r="C26" s="24"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -3088,7 +3236,7 @@
       <c r="AF26" s="12"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="38">
-        <f>SUM(C26:AG26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI26" s="38"/>
@@ -3099,18 +3247,18 @@
       </c>
       <c r="AL26"/>
       <c r="AM26" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AN26" s="1">
-        <f>AH8-AH9</f>
+        <f>AH45-AH9-AH26-AH32</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="63"/>
+      <c r="A27" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="71"/>
       <c r="C27" s="24"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3143,7 +3291,7 @@
       <c r="AF27" s="12"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="38">
-        <f>SUM(C27:AG27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI27" s="38"/>
@@ -3154,15 +3302,15 @@
       </c>
       <c r="AL27"/>
       <c r="AM27" s="39" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="AN27" s="1"/>
     </row>
     <row r="28" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="64"/>
+      <c r="A28" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="71"/>
       <c r="C28" s="24"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3195,7 +3343,7 @@
       <c r="AF28" s="12"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C28:AG28)</f>
         <v>0</v>
       </c>
       <c r="AI28" s="38"/>
@@ -3205,14 +3353,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL28"/>
+      <c r="AM28" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN28" s="1">
+        <f>AN26+AN27</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="62" t="s">
-        <v>10</v>
-      </c>
+      <c r="A29" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="71"/>
       <c r="C29" s="24"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3245,7 +3398,7 @@
       <c r="AF29" s="12"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AH29" si="7">SUM(C29:AG29)</f>
         <v>0</v>
       </c>
       <c r="AI29" s="38"/>
@@ -3255,12 +3408,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL29"/>
+      <c r="AM29" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="64"/>
+      <c r="A30" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="71"/>
       <c r="C30" s="24"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -3293,7 +3450,7 @@
       <c r="AF30" s="12"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C30:AG30)</f>
         <v>0</v>
       </c>
       <c r="AI30" s="38"/>
@@ -3303,12 +3460,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL30"/>
+      <c r="AM30" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN30" s="1">
+        <f>AH8-AH9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="27"/>
+        <v>75</v>
+      </c>
+      <c r="B31" s="71"/>
       <c r="C31" s="24"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3351,14 +3515,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL31"/>
+      <c r="AM31" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN31" s="1"/>
     </row>
     <row r="32" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="62" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B32" s="72"/>
       <c r="C32" s="24"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3401,12 +3567,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL32"/>
+      <c r="AM32" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN32" s="1">
+        <f>AH11-AH12</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="63"/>
+      <c r="A33" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>10</v>
+      </c>
       <c r="C33" s="24"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3452,9 +3627,9 @@
     </row>
     <row r="34" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="63"/>
+        <v>11</v>
+      </c>
+      <c r="B34" s="72"/>
       <c r="C34" s="24"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3496,12 +3671,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL34"/>
     </row>
     <row r="35" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="63"/>
+        <v>51</v>
+      </c>
+      <c r="B35" s="27"/>
       <c r="C35" s="24"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3543,19 +3719,22 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL35"/>
     </row>
     <row r="36" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="64"/>
+        <v>42</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>12</v>
+      </c>
       <c r="C36" s="24"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="5"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -3581,29 +3760,29 @@
       <c r="AF36" s="12"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="38">
-        <f>SUM(C36:AG36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI36" s="38"/>
       <c r="AJ36" s="14"/>
       <c r="AK36" s="40" t="e">
-        <f>AH36/AI36</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL36"/>
     </row>
     <row r="37" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="48"/>
+        <v>43</v>
+      </c>
+      <c r="B37" s="71"/>
       <c r="C37" s="24"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="5"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -3629,24 +3808,22 @@
       <c r="AF37" s="12"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="38">
-        <f>SUM(C37:AG37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI37" s="38"/>
       <c r="AJ37" s="14"/>
       <c r="AK37" s="40" t="e">
-        <f>AH37/AI37</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL37"/>
     </row>
     <row r="38" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="62" t="s">
-        <v>14</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B38" s="71"/>
       <c r="C38" s="24"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3690,10 +3867,10 @@
       </c>
     </row>
     <row r="39" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="63"/>
+      <c r="A39" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="71"/>
       <c r="C39" s="24"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3726,7 +3903,7 @@
       <c r="AF39" s="12"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C39:AG39)</f>
         <v>0</v>
       </c>
       <c r="AI39" s="38"/>
@@ -3738,16 +3915,16 @@
     </row>
     <row r="40" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="64"/>
+        <v>59</v>
+      </c>
+      <c r="B40" s="72"/>
       <c r="C40" s="24"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3773,28 +3950,29 @@
       <c r="AF40" s="12"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C40:AG40)</f>
         <v>0</v>
       </c>
       <c r="AI40" s="38"/>
       <c r="AJ40" s="14"/>
       <c r="AK40" s="40" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f>AH40/AI40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL40"/>
     </row>
     <row r="41" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="52"/>
+      <c r="A41" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3820,38 +3998,39 @@
       <c r="AF41" s="12"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C41:AG41)</f>
         <v>0</v>
       </c>
       <c r="AI41" s="38"/>
-      <c r="AJ41" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="AJ41" s="14"/>
       <c r="AK41" s="40" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:38" ht="18" customHeight="1" thickBot="1">
+        <f>AH41/AI41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL41"/>
+    </row>
+    <row r="42" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="B42" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
@@ -3867,27 +4046,218 @@
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
       <c r="AF42" s="12"/>
-      <c r="AG42" s="20"/>
+      <c r="AG42" s="19"/>
       <c r="AH42" s="38">
-        <f t="shared" ref="AH42" si="7">SUM(C42:AG42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI42" s="38"/>
-      <c r="AJ42" s="16"/>
+      <c r="AJ42" s="14"/>
       <c r="AK42" s="40" t="e">
-        <f t="shared" ref="AK42" si="8">AH42/AI42</f>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="71"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI43" s="38"/>
+      <c r="AJ43" s="14"/>
+      <c r="AK43" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="72"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="19"/>
+      <c r="AH44" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI44" s="38"/>
+      <c r="AJ44" s="14"/>
+      <c r="AK44" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="53"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="19"/>
+      <c r="AH45" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI45" s="38"/>
+      <c r="AJ45" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK45" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" ht="18" customHeight="1" thickBot="1">
+      <c r="A46" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="50"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="20"/>
+      <c r="AH46" s="38">
+        <f t="shared" ref="AH46" si="8">SUM(C46:AG46)</f>
+        <v>0</v>
+      </c>
+      <c r="AI46" s="38"/>
+      <c r="AJ46" s="16"/>
+      <c r="AK46" s="40" t="e">
+        <f t="shared" ref="AK46" si="9">AH46/AI46</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="AM20:AQ20"/>
     <mergeCell ref="A1:AH2"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B36:B40"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B8:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
@@ -335,10 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活跃微信客户数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐二手车评估数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,6 +412,10 @@
   </si>
   <si>
     <t>完成率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家虚出台次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1507,7 +1507,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG9" sqref="AG9"/>
+      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="24"/>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="74"/>
       <c r="C10" s="24"/>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="74"/>
       <c r="C11" s="24"/>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="74"/>
       <c r="C12" s="24"/>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="74"/>
       <c r="C13" s="24"/>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="74"/>
       <c r="C14" s="24"/>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="15" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="74"/>
       <c r="C15" s="24"/>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="AL20"/>
       <c r="AM20" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN20" s="62"/>
       <c r="AO20" s="62"/>
@@ -2939,19 +2939,19 @@
       </c>
       <c r="AL21"/>
       <c r="AM21" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN21" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="AN21" s="60" t="s">
-        <v>94</v>
-      </c>
       <c r="AO21" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP21" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="AP21" s="60" t="s">
+      <c r="AQ21" s="60" t="s">
         <v>97</v>
-      </c>
-      <c r="AQ21" s="60" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:46" ht="20.100000000000001" customHeight="1">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AL22"/>
       <c r="AM22" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN22" s="42"/>
       <c r="AO22" s="42"/>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="AL23"/>
       <c r="AM23" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AN23" s="42">
         <f>AH12</f>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="24" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="24"/>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="AL24"/>
       <c r="AM24" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AN24" s="42" t="e">
         <f>AN23/AN22</f>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="25" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="24"/>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="AL32"/>
       <c r="AM32" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN32" s="1">
         <f>AH11-AH12</f>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="33" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="70" t="s">
         <v>10</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="46" spans="1:38" ht="18" customHeight="1" thickBot="1">
       <c r="A46" s="29" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="25"/>

--- a/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
   <si>
     <t>林勇</t>
   </si>
@@ -416,6 +416,10 @@
   </si>
   <si>
     <t>厂家虚出台次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1501,13 +1505,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AT46"/>
+  <dimension ref="A1:AT47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1762,7 +1766,7 @@
       <c r="AF4" s="12"/>
       <c r="AG4" s="18"/>
       <c r="AH4" s="38">
-        <f t="shared" ref="AH4:AH45" si="0">SUM(C4:AG4)</f>
+        <f t="shared" ref="AH4:AH46" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="38"/>
@@ -1840,7 +1844,7 @@
       <c r="AI5" s="38"/>
       <c r="AJ5" s="14"/>
       <c r="AK5" s="40" t="e">
-        <f t="shared" ref="AK5:AK45" si="1">AH5/AI5</f>
+        <f t="shared" ref="AK5:AK46" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5"/>
@@ -1906,11 +1910,11 @@
         <v>34</v>
       </c>
       <c r="AN6" s="42">
-        <f>AH9+AH26</f>
+        <f>AH9+AH27</f>
         <v>0</v>
       </c>
       <c r="AO6" s="43" t="e">
-        <f>AH9/(AH9+AH26)</f>
+        <f>AH9/(AH9+AH27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP6" s="43" t="e">
@@ -1922,15 +1926,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR6" s="43" t="e">
-        <f>AH18/AH9</f>
+        <f>AH19/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS6" s="42" t="e">
-        <f>AH19/AH18</f>
+        <f>AH20/AH19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT6" s="43" t="e">
-        <f>AH39/AH9</f>
+        <f>AH40/AH9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2126,7 +2130,7 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="38">
-        <f t="shared" ref="AH9:AH18" si="3">SUM(C9:AG9)</f>
+        <f t="shared" ref="AH9:AH19" si="3">SUM(C9:AG9)</f>
         <v>0</v>
       </c>
       <c r="AI9" s="38"/>
@@ -2198,31 +2202,31 @@
         <v>34</v>
       </c>
       <c r="AN10" s="42" t="e">
-        <f>AH40/AH39</f>
+        <f>AH41/AH40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="43" t="e">
-        <f>AH20/AH9</f>
+        <f>AH21/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" s="42" t="e">
-        <f>AH21/AH20</f>
+        <f>AH22/AH21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" s="43" t="e">
-        <f>AH22/AH9</f>
+        <f>AH23/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" s="43" t="e">
-        <f>AH16/AH9</f>
+        <f>AH17/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10" s="42" t="e">
-        <f>AH17/AH9</f>
+        <f>AH18/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT10" s="42" t="e">
-        <f>AH28/AH26</f>
+        <f>AH29/AH27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2433,7 +2437,7 @@
       <c r="AQ13" s="44"/>
       <c r="AR13" s="42"/>
       <c r="AS13" s="42">
-        <f>(AI9+AI26)*AN31/30</f>
+        <f>(AI9+AI27)*AN31/30</f>
         <v>0</v>
       </c>
       <c r="AT13" s="55">
@@ -2492,23 +2496,23 @@
         <v>34</v>
       </c>
       <c r="AN14" s="46">
-        <f>AH34</f>
+        <f>AH35</f>
         <v>0</v>
       </c>
       <c r="AO14" s="43" t="e">
-        <f>(AH36+AH37+AH38)/AH9</f>
+        <f>(AH37+AH38+AH39)/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP14" s="56" t="e">
-        <f>AH35/(AH36+AH37+AH38)</f>
+        <f>AH36/(AH37+AH38+AH39)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ14" s="44" t="e">
-        <f>AH24/AH9</f>
+        <f>AH25/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR14" s="42" t="e">
-        <f>AH25/AH24</f>
+        <f>AH26/AH25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS14" s="42">
@@ -2522,7 +2526,7 @@
     </row>
     <row r="15" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="29" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B15" s="74"/>
       <c r="C15" s="24"/>
@@ -2595,7 +2599,7 @@
     </row>
     <row r="16" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="29" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B16" s="74"/>
       <c r="C16" s="24"/>
@@ -2655,7 +2659,7 @@
     </row>
     <row r="17" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="74"/>
       <c r="C17" s="24"/>
@@ -2704,7 +2708,7 @@
         <v>33</v>
       </c>
       <c r="AN17" s="46">
-        <f>AI19+AI21+AI17*0.5+AI31+AI35+AI23*0.3+AI41</f>
+        <f>AI20+AI22+AI18*0.5+AI32+AI36+AI24*0.3+AI42</f>
         <v>0</v>
       </c>
       <c r="AO17" s="43"/>
@@ -2715,8 +2719,8 @@
       <c r="AT17" s="46"/>
     </row>
     <row r="18" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="30" t="s">
-        <v>45</v>
+      <c r="A18" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="B18" s="74"/>
       <c r="C18" s="24"/>
@@ -2765,7 +2769,7 @@
         <v>34</v>
       </c>
       <c r="AN18" s="46">
-        <f>AH23*0.3+AH19+AH21+AH17*0.5+AH31+AH35+AH41</f>
+        <f>AH24*0.3+AH20+AH22+AH18*0.5+AH32+AH36+AH42</f>
         <v>0</v>
       </c>
       <c r="AO18" s="43"/>
@@ -2776,8 +2780,8 @@
       <c r="AT18" s="46"/>
     </row>
     <row r="19" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="29" t="s">
-        <v>46</v>
+      <c r="A19" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="B19" s="74"/>
       <c r="C19" s="24"/>
@@ -2812,7 +2816,7 @@
       <c r="AF19" s="12"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI19" s="38"/>
@@ -2837,8 +2841,8 @@
       <c r="AT19" s="44"/>
     </row>
     <row r="20" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="30" t="s">
-        <v>48</v>
+      <c r="A20" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="B20" s="74"/>
       <c r="C20" s="24"/>
@@ -2873,7 +2877,7 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="38">
-        <f>SUM(C20:AG20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI20" s="38"/>
@@ -2892,10 +2896,10 @@
       <c r="AQ20" s="63"/>
     </row>
     <row r="21" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="75"/>
+      <c r="A21" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="74"/>
       <c r="C21" s="24"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2928,7 +2932,7 @@
       <c r="AF21" s="12"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C21:AG21)</f>
         <v>0</v>
       </c>
       <c r="AI21" s="38"/>
@@ -2955,10 +2959,10 @@
       </c>
     </row>
     <row r="22" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="32"/>
+      <c r="A22" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="75"/>
       <c r="C22" s="24"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2991,7 +2995,7 @@
       <c r="AF22" s="12"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="38">
-        <f>SUM(C22:AG22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI22" s="38"/>
@@ -3010,12 +3014,10 @@
       <c r="AQ22" s="42"/>
     </row>
     <row r="23" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="A23" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="32"/>
       <c r="C23" s="24"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -3080,9 +3082,11 @@
     </row>
     <row r="24" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="49"/>
+        <v>49</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>7</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -3115,13 +3119,13 @@
       <c r="AF24" s="12"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="38">
-        <f t="shared" ref="AH24:AH25" si="5">SUM(C24:AG24)</f>
+        <f>SUM(C24:AG24)</f>
         <v>0</v>
       </c>
       <c r="AI24" s="38"/>
       <c r="AJ24" s="14"/>
       <c r="AK24" s="40" t="e">
-        <f>AH24/AI24</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL24"/>
@@ -3133,21 +3137,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO24" s="42" t="e">
-        <f t="shared" ref="AO24:AQ24" si="6">AO23/AO22</f>
+        <f t="shared" ref="AO24:AQ24" si="5">AO23/AO22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP24" s="42" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ24" s="42" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="24"/>
@@ -3182,13 +3186,13 @@
       <c r="AF25" s="12"/>
       <c r="AG25" s="19"/>
       <c r="AH25" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AH25:AH26" si="6">SUM(C25:AG25)</f>
         <v>0</v>
       </c>
       <c r="AI25" s="38"/>
       <c r="AJ25" s="14"/>
       <c r="AK25" s="40" t="e">
-        <f t="shared" si="1"/>
+        <f>AH25/AI25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL25"/>
@@ -3199,11 +3203,9 @@
     </row>
     <row r="26" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="70" t="s">
-        <v>8</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B26" s="49"/>
       <c r="C26" s="24"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -3236,7 +3238,7 @@
       <c r="AF26" s="12"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI26" s="38"/>
@@ -3250,15 +3252,17 @@
         <v>69</v>
       </c>
       <c r="AN26" s="1">
-        <f>AH45-AH9-AH26-AH32</f>
+        <f>AH46-AH9-AH27-AH33</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="71"/>
+        <v>52</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>8</v>
+      </c>
       <c r="C27" s="24"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3307,8 +3311,8 @@
       <c r="AN27" s="1"/>
     </row>
     <row r="28" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="30" t="s">
-        <v>26</v>
+      <c r="A28" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="B28" s="71"/>
       <c r="C28" s="24"/>
@@ -3343,7 +3347,7 @@
       <c r="AF28" s="12"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="38">
-        <f>SUM(C28:AG28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI28" s="38"/>
@@ -3362,8 +3366,8 @@
       </c>
     </row>
     <row r="29" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="29" t="s">
-        <v>53</v>
+      <c r="A29" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="B29" s="71"/>
       <c r="C29" s="24"/>
@@ -3398,7 +3402,7 @@
       <c r="AF29" s="12"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="38">
-        <f t="shared" ref="AH29" si="7">SUM(C29:AG29)</f>
+        <f>SUM(C29:AG29)</f>
         <v>0</v>
       </c>
       <c r="AI29" s="38"/>
@@ -3414,8 +3418,8 @@
       <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="30" t="s">
-        <v>54</v>
+      <c r="A30" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="B30" s="71"/>
       <c r="C30" s="24"/>
@@ -3450,7 +3454,7 @@
       <c r="AF30" s="12"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="38">
-        <f>SUM(C30:AG30)</f>
+        <f t="shared" ref="AH30" si="7">SUM(C30:AG30)</f>
         <v>0</v>
       </c>
       <c r="AI30" s="38"/>
@@ -3470,7 +3474,7 @@
     </row>
     <row r="31" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B31" s="71"/>
       <c r="C31" s="24"/>
@@ -3521,10 +3525,10 @@
       <c r="AN31" s="1"/>
     </row>
     <row r="32" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="72"/>
+      <c r="A32" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="71"/>
       <c r="C32" s="24"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3557,7 +3561,7 @@
       <c r="AF32" s="12"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C32:AG32)</f>
         <v>0</v>
       </c>
       <c r="AI32" s="38"/>
@@ -3576,12 +3580,10 @@
       </c>
     </row>
     <row r="33" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="70" t="s">
-        <v>10</v>
-      </c>
+      <c r="A33" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="72"/>
       <c r="C33" s="24"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3626,10 +3628,12 @@
       <c r="AL33"/>
     </row>
     <row r="34" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="72"/>
+      <c r="A34" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>10</v>
+      </c>
       <c r="C34" s="24"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3674,10 +3678,10 @@
       <c r="AL34"/>
     </row>
     <row r="35" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="27"/>
+      <c r="A35" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="72"/>
       <c r="C35" s="24"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3710,7 +3714,7 @@
       <c r="AF35" s="12"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="38">
-        <f>SUM(C35:AG35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI35" s="38"/>
@@ -3722,12 +3726,10 @@
       <c r="AL35"/>
     </row>
     <row r="36" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="70" t="s">
-        <v>12</v>
-      </c>
+      <c r="A36" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="27"/>
       <c r="C36" s="24"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3760,7 +3762,7 @@
       <c r="AF36" s="12"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C36:AG36)</f>
         <v>0</v>
       </c>
       <c r="AI36" s="38"/>
@@ -3773,9 +3775,11 @@
     </row>
     <row r="37" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="71"/>
+        <v>42</v>
+      </c>
+      <c r="B37" s="70" t="s">
+        <v>12</v>
+      </c>
       <c r="C37" s="24"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3821,7 +3825,7 @@
     </row>
     <row r="38" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="71"/>
       <c r="C38" s="24"/>
@@ -3865,10 +3869,11 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL38"/>
     </row>
     <row r="39" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="30" t="s">
-        <v>58</v>
+      <c r="A39" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="B39" s="71"/>
       <c r="C39" s="24"/>
@@ -3903,7 +3908,7 @@
       <c r="AF39" s="12"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="38">
-        <f>SUM(C39:AG39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI39" s="38"/>
@@ -3914,17 +3919,17 @@
       </c>
     </row>
     <row r="40" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="72"/>
+      <c r="A40" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="71"/>
       <c r="C40" s="24"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="5"/>
+      <c r="I40" s="4"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3956,16 +3961,15 @@
       <c r="AI40" s="38"/>
       <c r="AJ40" s="14"/>
       <c r="AK40" s="40" t="e">
-        <f>AH40/AI40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL40"/>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="41" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="48"/>
+        <v>59</v>
+      </c>
+      <c r="B41" s="72"/>
       <c r="C41" s="24"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -4011,18 +4015,16 @@
     </row>
     <row r="42" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="70" t="s">
-        <v>14</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B42" s="48"/>
       <c r="C42" s="24"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -4048,21 +4050,24 @@
       <c r="AF42" s="12"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="38">
-        <f t="shared" si="0"/>
+        <f>SUM(C42:AG42)</f>
         <v>0</v>
       </c>
       <c r="AI42" s="38"/>
       <c r="AJ42" s="14"/>
       <c r="AK42" s="40" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f>AH42/AI42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL42"/>
     </row>
     <row r="43" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="71"/>
+        <v>13</v>
+      </c>
+      <c r="B43" s="70" t="s">
+        <v>14</v>
+      </c>
       <c r="C43" s="24"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -4107,9 +4112,9 @@
     </row>
     <row r="44" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="72"/>
+        <v>15</v>
+      </c>
+      <c r="B44" s="71"/>
       <c r="C44" s="24"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -4153,11 +4158,11 @@
       </c>
     </row>
     <row r="45" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="52"/>
+      <c r="A45" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="72"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -4193,34 +4198,32 @@
         <v>0</v>
       </c>
       <c r="AI45" s="38"/>
-      <c r="AJ45" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="AJ45" s="14"/>
       <c r="AK45" s="40" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="18" customHeight="1" thickBot="1">
-      <c r="A46" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
+    <row r="46" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="53"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
       <c r="R46" s="12"/>
       <c r="S46" s="12"/>
       <c r="T46" s="12"/>
@@ -4236,15 +4239,64 @@
       <c r="AD46" s="12"/>
       <c r="AE46" s="12"/>
       <c r="AF46" s="12"/>
-      <c r="AG46" s="20"/>
+      <c r="AG46" s="19"/>
       <c r="AH46" s="38">
-        <f t="shared" ref="AH46" si="8">SUM(C46:AG46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI46" s="38"/>
-      <c r="AJ46" s="16"/>
+      <c r="AJ46" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="AK46" s="40" t="e">
-        <f t="shared" ref="AK46" si="9">AH46/AI46</f>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" ht="18" customHeight="1" thickBot="1">
+      <c r="A47" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="50"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="38">
+        <f t="shared" ref="AH47" si="8">SUM(C47:AG47)</f>
+        <v>0</v>
+      </c>
+      <c r="AI47" s="38"/>
+      <c r="AJ47" s="16"/>
+      <c r="AK47" s="40" t="e">
+        <f t="shared" ref="AK47" si="9">AH47/AI47</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4252,12 +4304,12 @@
   <mergeCells count="8">
     <mergeCell ref="AM20:AQ20"/>
     <mergeCell ref="A1:AH2"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B37:B41"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B8:B21"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B8:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="103">
   <si>
     <t>林勇</t>
   </si>
@@ -415,11 +415,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>预留订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转介绍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>厂家虚出台次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -774,10 +778,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -789,10 +791,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -801,10 +801,27 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -814,56 +831,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -873,34 +843,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -972,7 +918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,13 +952,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1021,34 +961,25 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1096,7 +1027,7 @@
     <xf numFmtId="10" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1108,13 +1039,13 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1123,13 +1054,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1144,10 +1072,10 @@
     <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,13 +1084,13 @@
     <xf numFmtId="9" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1505,13 +1433,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AT47"/>
+  <dimension ref="A1:AT46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1526,287 +1454,287 @@
     <col min="37" max="37" width="10.625" style="2" customWidth="1"/>
     <col min="38" max="38" width="7.5" style="2" customWidth="1"/>
     <col min="39" max="39" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.125" style="21" customWidth="1"/>
-    <col min="44" max="44" width="14.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="16.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.125" style="17" customWidth="1"/>
+    <col min="44" max="44" width="14.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="16.125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="66"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="60"/>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
     </row>
     <row r="2" spans="1:46" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="26"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="21"/>
       <c r="AJ2" s="7"/>
-      <c r="AK2" s="26"/>
+      <c r="AK2" s="21"/>
     </row>
     <row r="3" spans="1:46" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="30">
         <v>1</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="30">
         <v>2</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="30">
         <v>3</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="30">
         <v>4</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="30">
         <v>5</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="30">
         <v>6</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="30">
         <v>7</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="30">
         <v>8</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="30">
         <v>9</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="30">
         <v>10</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="30">
         <v>11</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3" s="30">
         <v>12</v>
       </c>
-      <c r="O3" s="35">
+      <c r="O3" s="30">
         <v>13</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="30">
         <v>14</v>
       </c>
-      <c r="Q3" s="35">
+      <c r="Q3" s="30">
         <v>15</v>
       </c>
-      <c r="R3" s="35">
+      <c r="R3" s="30">
         <v>16</v>
       </c>
-      <c r="S3" s="35">
+      <c r="S3" s="30">
         <v>17</v>
       </c>
-      <c r="T3" s="35">
+      <c r="T3" s="30">
         <v>18</v>
       </c>
-      <c r="U3" s="35">
+      <c r="U3" s="30">
         <v>19</v>
       </c>
-      <c r="V3" s="35">
+      <c r="V3" s="30">
         <v>20</v>
       </c>
-      <c r="W3" s="35">
+      <c r="W3" s="30">
         <v>21</v>
       </c>
-      <c r="X3" s="35">
+      <c r="X3" s="30">
         <v>22</v>
       </c>
-      <c r="Y3" s="35">
+      <c r="Y3" s="30">
         <v>23</v>
       </c>
-      <c r="Z3" s="35">
+      <c r="Z3" s="30">
         <v>24</v>
       </c>
-      <c r="AA3" s="35">
+      <c r="AA3" s="30">
         <v>25</v>
       </c>
-      <c r="AB3" s="35">
+      <c r="AB3" s="30">
         <v>26</v>
       </c>
-      <c r="AC3" s="35">
+      <c r="AC3" s="30">
         <v>27</v>
       </c>
-      <c r="AD3" s="35">
+      <c r="AD3" s="30">
         <v>28</v>
       </c>
-      <c r="AE3" s="35">
+      <c r="AE3" s="30">
         <v>29</v>
       </c>
-      <c r="AF3" s="35">
+      <c r="AF3" s="30">
         <v>30</v>
       </c>
-      <c r="AG3" s="35">
+      <c r="AG3" s="30">
         <v>31</v>
       </c>
-      <c r="AH3" s="35" t="s">
+      <c r="AH3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AI3" s="36" t="s">
+      <c r="AI3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AJ3" s="22" t="s">
+      <c r="AJ3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AK3" s="36" t="s">
+      <c r="AK3" s="31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="38">
+      <c r="C4" s="19"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="33">
         <f t="shared" ref="AH4:AH46" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="40" t="e">
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="35" t="e">
         <f>AH4/AI4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL4"/>
-      <c r="AM4" s="34" t="s">
+      <c r="AM4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AN4" s="41" t="s">
+      <c r="AN4" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="AO4" s="41" t="s">
+      <c r="AO4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AP4" s="41" t="s">
+      <c r="AP4" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="AQ4" s="41" t="s">
+      <c r="AQ4" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="AR4" s="41" t="s">
+      <c r="AR4" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AS4" s="41" t="s">
+      <c r="AS4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AT4" s="41" t="s">
+      <c r="AT4" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1821,50 +1749,50 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="38">
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="33">
         <f>SUM(C5:AG5)</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="40" t="e">
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="35" t="e">
         <f t="shared" ref="AK5:AK46" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5"/>
-      <c r="AM5" s="34" t="s">
+      <c r="AM5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="43"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="38"/>
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1879,71 +1807,71 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="38">
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="33">
         <f>SUM(C6:AG6)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="40" t="e">
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL6"/>
-      <c r="AM6" s="34" t="s">
+      <c r="AM6" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AN6" s="42">
+      <c r="AN6" s="37">
         <f>AH9+AH27</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="43" t="e">
+      <c r="AO6" s="38" t="e">
         <f>AH9/(AH9+AH27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP6" s="43" t="e">
+      <c r="AP6" s="38" t="e">
         <f>AH5/AH4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ6" s="43" t="e">
+      <c r="AQ6" s="38" t="e">
         <f>(AH8-AN29)/AH5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR6" s="43" t="e">
+      <c r="AR6" s="38" t="e">
         <f>AH19/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS6" s="42" t="e">
+      <c r="AS6" s="37" t="e">
         <f>AH20/AH19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT6" s="43" t="e">
+      <c r="AT6" s="38" t="e">
         <f>AH40/AH9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1958,73 +1886,73 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="38">
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="33">
         <f>SUM(C7:AG7)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="40" t="e">
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL7"/>
-      <c r="AM7" s="34" t="s">
+      <c r="AM7" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AN7" s="44" t="e">
+      <c r="AN7" s="39" t="e">
         <f t="shared" ref="AN7:AT7" si="2">AN6/AN5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO7" s="44" t="e">
+      <c r="AO7" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP7" s="44" t="e">
+      <c r="AP7" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ7" s="44" t="e">
+      <c r="AQ7" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR7" s="44" t="e">
+      <c r="AR7" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS7" s="44" t="e">
+      <c r="AS7" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT7" s="44" t="e">
+      <c r="AT7" s="39" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="24"/>
+      <c r="B8" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -2039,66 +1967,66 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="38">
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="15" t="s">
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AK8" s="40" t="e">
+      <c r="AK8" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL8"/>
-      <c r="AM8" s="34" t="s">
+      <c r="AM8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AN8" s="45" t="s">
+      <c r="AN8" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AO8" s="45" t="s">
+      <c r="AO8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AP8" s="45" t="s">
+      <c r="AP8" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AQ8" s="45" t="s">
+      <c r="AQ8" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="AR8" s="45" t="s">
+      <c r="AR8" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AS8" s="45" t="s">
+      <c r="AS8" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AT8" s="45" t="s">
+      <c r="AT8" s="40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -2113,50 +2041,50 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="38">
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="33">
         <f t="shared" ref="AH9:AH19" si="3">SUM(C9:AG9)</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="40" t="e">
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL9"/>
-      <c r="AM9" s="34" t="s">
+      <c r="AM9" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="43"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37"/>
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2171,71 +2099,71 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="38">
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="40" t="e">
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL10"/>
-      <c r="AM10" s="34" t="s">
+      <c r="AM10" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AN10" s="42" t="e">
+      <c r="AN10" s="37" t="e">
         <f>AH41/AH40</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO10" s="43" t="e">
+      <c r="AO10" s="38" t="e">
         <f>AH21/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP10" s="42" t="e">
+      <c r="AP10" s="37" t="e">
         <f>AH22/AH21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ10" s="43" t="e">
+      <c r="AQ10" s="38" t="e">
         <f>AH23/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR10" s="43" t="e">
+      <c r="AR10" s="38" t="e">
         <f>AH17/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS10" s="42" t="e">
+      <c r="AS10" s="37" t="e">
         <f>AH18/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT10" s="42" t="e">
+      <c r="AT10" s="37" t="e">
         <f>AH29/AH27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2250,71 +2178,71 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="38">
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="40" t="e">
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL11"/>
-      <c r="AM11" s="34" t="s">
+      <c r="AM11" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AN11" s="47" t="e">
+      <c r="AN11" s="42" t="e">
         <f t="shared" ref="AN11:AT11" si="4">AN10/AN9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO11" s="47" t="e">
+      <c r="AO11" s="42" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP11" s="47" t="e">
+      <c r="AP11" s="42" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ11" s="47" t="e">
+      <c r="AQ11" s="42" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR11" s="47" t="e">
+      <c r="AR11" s="42" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS11" s="47" t="e">
+      <c r="AS11" s="42" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT11" s="47" t="e">
+      <c r="AT11" s="42" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2329,64 +2257,64 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="38">
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="40" t="e">
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL12"/>
-      <c r="AM12" s="34" t="s">
+      <c r="AM12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AN12" s="34" t="s">
+      <c r="AN12" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AO12" s="34" t="s">
+      <c r="AO12" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AP12" s="34" t="s">
+      <c r="AP12" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AQ12" s="34" t="s">
+      <c r="AQ12" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AR12" s="34" t="s">
+      <c r="AR12" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AS12" s="34" t="s">
+      <c r="AS12" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="AT12" s="34" t="s">
+      <c r="AT12" s="29" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2401,56 +2329,56 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="38">
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="40" t="e">
+      <c r="AI13" s="33"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL13"/>
-      <c r="AM13" s="34" t="s">
+      <c r="AM13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AN13" s="46"/>
-      <c r="AO13" s="43"/>
-      <c r="AP13" s="46"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42">
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="37"/>
+      <c r="AS13" s="37">
         <f>(AI9+AI27)*AN31/30</f>
         <v>0</v>
       </c>
-      <c r="AT13" s="55">
+      <c r="AT13" s="49">
         <f>AS13*AN25*0.0075</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2465,71 +2393,71 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="38">
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="40" t="e">
+      <c r="AI14" s="33"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL14"/>
-      <c r="AM14" s="34" t="s">
+      <c r="AM14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AN14" s="46">
+      <c r="AN14" s="41">
         <f>AH35</f>
         <v>0</v>
       </c>
-      <c r="AO14" s="43" t="e">
+      <c r="AO14" s="38" t="e">
         <f>(AH37+AH38+AH39)/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP14" s="56" t="e">
+      <c r="AP14" s="50" t="e">
         <f>AH36/(AH37+AH38+AH39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ14" s="44" t="e">
+      <c r="AQ14" s="39" t="e">
         <f>AH25/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR14" s="42" t="e">
+      <c r="AR14" s="37" t="e">
         <f>AH26/AH25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS14" s="42">
+      <c r="AS14" s="37">
         <f>AN26</f>
         <v>0</v>
       </c>
-      <c r="AT14" s="55">
+      <c r="AT14" s="49">
         <f>AS14*AN25*0.0075</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="68"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2544,65 +2472,65 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="38">
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="40" t="e">
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL15"/>
-      <c r="AM15" s="34" t="s">
+      <c r="AM15" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AN15" s="44" t="e">
+      <c r="AN15" s="39" t="e">
         <f>AN14/AN13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO15" s="44" t="e">
+      <c r="AO15" s="39" t="e">
         <f>AO14/AO13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP15" s="44" t="e">
+      <c r="AP15" s="39" t="e">
         <f>AP14/AP13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ15" s="44" t="e">
+      <c r="AQ15" s="39" t="e">
         <f>AQ14/AQ13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR15" s="44" t="e">
+      <c r="AR15" s="39" t="e">
         <f>AR14/AR13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
+      <c r="AS15" s="39"/>
+      <c r="AT15" s="39"/>
     </row>
     <row r="16" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2617,52 +2545,54 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="38">
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="40" t="e">
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL16"/>
-      <c r="AM16" s="34" t="s">
+      <c r="AM16" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AN16" s="34" t="s">
+      <c r="AN16" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="34"/>
-      <c r="AT16" s="34"/>
+      <c r="AO16" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="29"/>
+      <c r="AS16" s="29"/>
+      <c r="AT16" s="29"/>
     </row>
     <row r="17" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2677,53 +2607,53 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="38">
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="40" t="e">
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL17"/>
-      <c r="AM17" s="34" t="s">
+      <c r="AM17" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AN17" s="46">
+      <c r="AN17" s="41">
         <f>AI20+AI22+AI18*0.5+AI32+AI36+AI24*0.3+AI42</f>
         <v>0</v>
       </c>
-      <c r="AO17" s="43"/>
-      <c r="AP17" s="46"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="42"/>
-      <c r="AT17" s="46"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="41"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="37"/>
+      <c r="AT17" s="41"/>
     </row>
     <row r="18" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2738,53 +2668,56 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="38">
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="40" t="e">
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL18"/>
-      <c r="AM18" s="34" t="s">
+      <c r="AM18" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AN18" s="46">
+      <c r="AN18" s="41">
         <f>AH24*0.3+AH20+AH22+AH18*0.5+AH32+AH36+AH42</f>
         <v>0</v>
       </c>
-      <c r="AO18" s="43"/>
-      <c r="AP18" s="46"/>
-      <c r="AQ18" s="42"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-      <c r="AT18" s="46"/>
+      <c r="AO18" s="38" t="e">
+        <f>AH16/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP18" s="41"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="37"/>
+      <c r="AT18" s="41"/>
     </row>
     <row r="19" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="24"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2799,53 +2732,56 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="38">
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="40" t="e">
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL19"/>
-      <c r="AM19" s="34" t="s">
+      <c r="AM19" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AN19" s="44" t="e">
+      <c r="AN19" s="39" t="e">
         <f>AN18/AN17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO19" s="44"/>
-      <c r="AP19" s="44"/>
-      <c r="AQ19" s="44"/>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
-      <c r="AT19" s="44"/>
+      <c r="AO19" s="39" t="e">
+        <f>AO18/AO17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="39"/>
+      <c r="AR19" s="39"/>
+      <c r="AS19" s="39"/>
+      <c r="AT19" s="39"/>
     </row>
     <row r="20" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2860,47 +2796,47 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="38">
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="40" t="e">
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL20"/>
-      <c r="AM20" s="61" t="s">
+      <c r="AM20" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
-      <c r="AQ20" s="63"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56"/>
+      <c r="AQ20" s="57"/>
     </row>
     <row r="21" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2915,55 +2851,55 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="38">
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="33">
         <f>SUM(C21:AG21)</f>
         <v>0</v>
       </c>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="40" t="e">
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL21"/>
-      <c r="AM21" s="59" t="s">
+      <c r="AM21" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="AN21" s="60" t="s">
+      <c r="AN21" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="AO21" s="60" t="s">
+      <c r="AO21" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="AP21" s="60" t="s">
+      <c r="AP21" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="AQ21" s="60" t="s">
+      <c r="AQ21" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2978,47 +2914,47 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="38">
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="40" t="e">
+      <c r="AI22" s="33"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL22"/>
-      <c r="AM22" s="59" t="s">
+      <c r="AM22" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="AN22" s="42"/>
-      <c r="AO22" s="42"/>
-      <c r="AP22" s="42"/>
-      <c r="AQ22" s="42"/>
+      <c r="AN22" s="37"/>
+      <c r="AO22" s="37"/>
+      <c r="AP22" s="37"/>
+      <c r="AQ22" s="37"/>
     </row>
     <row r="23" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3033,61 +2969,61 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="38">
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="33">
         <f>SUM(C23:AG23)</f>
         <v>0</v>
       </c>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="14"/>
-      <c r="AK23" s="40" t="e">
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL23"/>
-      <c r="AM23" s="59" t="s">
+      <c r="AM23" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="AN23" s="42">
+      <c r="AN23" s="37">
         <f>AH12</f>
         <v>0</v>
       </c>
-      <c r="AO23" s="42">
+      <c r="AO23" s="37">
         <f>AH13</f>
         <v>0</v>
       </c>
-      <c r="AP23" s="42">
+      <c r="AP23" s="37">
         <f>AH14</f>
         <v>0</v>
       </c>
-      <c r="AQ23" s="42" t="e">
+      <c r="AQ23" s="37" t="e">
         <f>(AH13+AH14)/AH12</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -3102,59 +3038,59 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="38">
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="33">
         <f>SUM(C24:AG24)</f>
         <v>0</v>
       </c>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="14"/>
-      <c r="AK24" s="40" t="e">
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL24"/>
-      <c r="AM24" s="59" t="s">
+      <c r="AM24" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="AN24" s="42" t="e">
+      <c r="AN24" s="37" t="e">
         <f>AN23/AN22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO24" s="42" t="e">
+      <c r="AO24" s="37" t="e">
         <f t="shared" ref="AO24:AQ24" si="5">AO23/AO22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP24" s="42" t="e">
+      <c r="AP24" s="37" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ24" s="42" t="e">
+      <c r="AQ24" s="37" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -3169,44 +3105,44 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="38">
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="33">
         <f t="shared" ref="AH25:AH26" si="6">SUM(C25:AG25)</f>
         <v>0</v>
       </c>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="40" t="e">
+      <c r="AI25" s="33"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="35" t="e">
         <f>AH25/AI25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL25"/>
-      <c r="AM25" s="57" t="s">
+      <c r="AM25" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="AN25" s="58"/>
+      <c r="AN25" s="52"/>
     </row>
     <row r="26" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -3221,34 +3157,34 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="38">
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="40" t="e">
+      <c r="AI26" s="33"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL26"/>
-      <c r="AM26" s="39" t="s">
+      <c r="AM26" s="34" t="s">
         <v>69</v>
       </c>
       <c r="AN26" s="1">
@@ -3257,13 +3193,13 @@
       </c>
     </row>
     <row r="27" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -3278,44 +3214,44 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="38">
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI27" s="38"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="40" t="e">
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL27"/>
-      <c r="AM27" s="39" t="s">
+      <c r="AM27" s="34" t="s">
         <v>57</v>
       </c>
       <c r="AN27" s="1"/>
     </row>
     <row r="28" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -3330,34 +3266,34 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="38">
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI28" s="38"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="40" t="e">
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL28"/>
-      <c r="AM28" s="39" t="s">
+      <c r="AM28" s="34" t="s">
         <v>78</v>
       </c>
       <c r="AN28" s="1">
@@ -3366,11 +3302,11 @@
       </c>
     </row>
     <row r="29" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -3385,44 +3321,44 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="38">
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="33">
         <f>SUM(C29:AG29)</f>
         <v>0</v>
       </c>
-      <c r="AI29" s="38"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="40" t="e">
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL29"/>
-      <c r="AM29" s="39" t="s">
+      <c r="AM29" s="34" t="s">
         <v>64</v>
       </c>
       <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -3437,34 +3373,34 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="38">
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="33">
         <f t="shared" ref="AH30" si="7">SUM(C30:AG30)</f>
         <v>0</v>
       </c>
-      <c r="AI30" s="38"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="40" t="e">
+      <c r="AI30" s="33"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL30"/>
-      <c r="AM30" s="39" t="s">
+      <c r="AM30" s="34" t="s">
         <v>71</v>
       </c>
       <c r="AN30" s="1">
@@ -3473,11 +3409,11 @@
       </c>
     </row>
     <row r="31" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="71"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -3492,44 +3428,44 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="38">
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="33">
         <f>SUM(C31:AG31)</f>
         <v>0</v>
       </c>
-      <c r="AI31" s="38"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="40" t="e">
+      <c r="AI31" s="33"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL31"/>
-      <c r="AM31" s="39" t="s">
+      <c r="AM31" s="34" t="s">
         <v>79</v>
       </c>
       <c r="AN31" s="1"/>
     </row>
     <row r="32" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -3544,34 +3480,34 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="38">
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="33">
         <f>SUM(C32:AG32)</f>
         <v>0</v>
       </c>
-      <c r="AI32" s="38"/>
-      <c r="AJ32" s="14"/>
-      <c r="AK32" s="40" t="e">
+      <c r="AI32" s="33"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL32"/>
-      <c r="AM32" s="39" t="s">
+      <c r="AM32" s="34" t="s">
         <v>90</v>
       </c>
       <c r="AN32" s="1">
@@ -3579,12 +3515,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="29" t="s">
+    <row r="33" spans="1:40" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -3599,42 +3535,46 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="19"/>
-      <c r="AH33" s="38">
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI33" s="38"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="40" t="e">
+      <c r="AI33" s="33"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL33"/>
-    </row>
-    <row r="34" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="31" t="s">
+      <c r="AM33" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN33" s="1"/>
+    </row>
+    <row r="34" spans="1:40" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -3649,40 +3589,40 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="38">
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI34" s="38"/>
-      <c r="AJ34" s="14"/>
-      <c r="AK34" s="40" t="e">
+      <c r="AI34" s="33"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL34"/>
     </row>
-    <row r="35" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="29" t="s">
+    <row r="35" spans="1:40" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -3697,40 +3637,40 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="19"/>
-      <c r="AH35" s="38">
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI35" s="38"/>
-      <c r="AJ35" s="14"/>
-      <c r="AK35" s="40" t="e">
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL35"/>
     </row>
-    <row r="36" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:40" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -3745,42 +3685,42 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="12"/>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="12"/>
-      <c r="AE36" s="12"/>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="38">
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="33">
         <f>SUM(C36:AG36)</f>
         <v>0</v>
       </c>
-      <c r="AI36" s="38"/>
-      <c r="AJ36" s="14"/>
-      <c r="AK36" s="40" t="e">
+      <c r="AI36" s="33"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL36"/>
     </row>
-    <row r="37" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="29" t="s">
+    <row r="37" spans="1:40" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -3795,40 +3735,40 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12"/>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="12"/>
-      <c r="AG37" s="19"/>
-      <c r="AH37" s="38">
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI37" s="38"/>
-      <c r="AJ37" s="14"/>
-      <c r="AK37" s="40" t="e">
+      <c r="AI37" s="33"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL37"/>
     </row>
-    <row r="38" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="29" t="s">
+    <row r="38" spans="1:40" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="71"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -3843,40 +3783,40 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="12"/>
-      <c r="AE38" s="12"/>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="38">
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI38" s="38"/>
-      <c r="AJ38" s="14"/>
-      <c r="AK38" s="40" t="e">
+      <c r="AI38" s="33"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL38"/>
     </row>
-    <row r="39" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="29" t="s">
+    <row r="39" spans="1:40" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="71"/>
-      <c r="C39" s="24"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -3891,39 +3831,39 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="38">
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI39" s="38"/>
-      <c r="AJ39" s="14"/>
-      <c r="AK39" s="40" t="e">
+      <c r="AI39" s="33"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="30" t="s">
+    <row r="40" spans="1:40" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="24"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -3938,39 +3878,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="12"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="12"/>
-      <c r="AE40" s="12"/>
-      <c r="AF40" s="12"/>
-      <c r="AG40" s="19"/>
-      <c r="AH40" s="38">
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="16"/>
+      <c r="AH40" s="33">
         <f>SUM(C40:AG40)</f>
         <v>0</v>
       </c>
-      <c r="AI40" s="38"/>
-      <c r="AJ40" s="14"/>
-      <c r="AK40" s="40" t="e">
+      <c r="AI40" s="33"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="29" t="s">
+    <row r="41" spans="1:40" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="24"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -3985,40 +3925,40 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
-      <c r="AA41" s="12"/>
-      <c r="AB41" s="12"/>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="12"/>
-      <c r="AE41" s="12"/>
-      <c r="AF41" s="12"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="38">
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="33">
         <f>SUM(C41:AG41)</f>
         <v>0</v>
       </c>
-      <c r="AI41" s="38"/>
-      <c r="AJ41" s="14"/>
-      <c r="AK41" s="40" t="e">
+      <c r="AI41" s="33"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="35" t="e">
         <f>AH41/AI41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL41"/>
     </row>
-    <row r="42" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="29" t="s">
+    <row r="42" spans="1:40" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="24"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -4033,42 +3973,42 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="12"/>
-      <c r="AB42" s="12"/>
-      <c r="AC42" s="12"/>
-      <c r="AD42" s="12"/>
-      <c r="AE42" s="12"/>
-      <c r="AF42" s="12"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="38">
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="33">
         <f>SUM(C42:AG42)</f>
         <v>0</v>
       </c>
-      <c r="AI42" s="38"/>
-      <c r="AJ42" s="14"/>
-      <c r="AK42" s="40" t="e">
+      <c r="AI42" s="33"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="35" t="e">
         <f>AH42/AI42</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL42"/>
     </row>
-    <row r="43" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="29" t="s">
+    <row r="43" spans="1:40" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="24"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -4083,39 +4023,39 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="12"/>
-      <c r="AB43" s="12"/>
-      <c r="AC43" s="12"/>
-      <c r="AD43" s="12"/>
-      <c r="AE43" s="12"/>
-      <c r="AF43" s="12"/>
-      <c r="AG43" s="19"/>
-      <c r="AH43" s="38">
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="16"/>
+      <c r="AH43" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI43" s="38"/>
-      <c r="AJ43" s="14"/>
-      <c r="AK43" s="40" t="e">
+      <c r="AI43" s="33"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="29" t="s">
+    <row r="44" spans="1:40" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="71"/>
-      <c r="C44" s="24"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -4130,39 +4070,39 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
-      <c r="AF44" s="12"/>
-      <c r="AG44" s="19"/>
-      <c r="AH44" s="38">
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="16"/>
+      <c r="AH44" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="14"/>
-      <c r="AK44" s="40" t="e">
+      <c r="AI44" s="33"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="29" t="s">
+    <row r="45" spans="1:40" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="72"/>
-      <c r="C45" s="24"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -4177,39 +4117,39 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="12"/>
-      <c r="AA45" s="12"/>
-      <c r="AB45" s="12"/>
-      <c r="AC45" s="12"/>
-      <c r="AD45" s="12"/>
-      <c r="AE45" s="12"/>
-      <c r="AF45" s="12"/>
-      <c r="AG45" s="19"/>
-      <c r="AH45" s="38">
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="16"/>
+      <c r="AH45" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI45" s="38"/>
-      <c r="AJ45" s="14"/>
-      <c r="AK45" s="40" t="e">
+      <c r="AI45" s="33"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="51" t="s">
+    <row r="46" spans="1:40" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="52"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -4224,79 +4164,32 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="12"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="12"/>
-      <c r="Z46" s="12"/>
-      <c r="AA46" s="12"/>
-      <c r="AB46" s="12"/>
-      <c r="AC46" s="12"/>
-      <c r="AD46" s="12"/>
-      <c r="AE46" s="12"/>
-      <c r="AF46" s="12"/>
-      <c r="AG46" s="19"/>
-      <c r="AH46" s="38">
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="16"/>
+      <c r="AH46" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI46" s="38"/>
-      <c r="AJ46" s="15" t="s">
+      <c r="AI46" s="33"/>
+      <c r="AJ46" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AK46" s="40" t="e">
+      <c r="AK46" s="35" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:38" ht="18" customHeight="1" thickBot="1">
-      <c r="A47" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="12"/>
-      <c r="V47" s="12"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="12"/>
-      <c r="Y47" s="12"/>
-      <c r="Z47" s="12"/>
-      <c r="AA47" s="12"/>
-      <c r="AB47" s="12"/>
-      <c r="AC47" s="12"/>
-      <c r="AD47" s="12"/>
-      <c r="AE47" s="12"/>
-      <c r="AF47" s="12"/>
-      <c r="AG47" s="20"/>
-      <c r="AH47" s="38">
-        <f t="shared" ref="AH47" si="8">SUM(C47:AG47)</f>
-        <v>0</v>
-      </c>
-      <c r="AI47" s="38"/>
-      <c r="AJ47" s="16"/>
-      <c r="AK47" s="40" t="e">
-        <f t="shared" ref="AK47" si="9">AH47/AI47</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
   <si>
     <t>林勇</t>
   </si>
@@ -424,6 +424,18 @@
   </si>
   <si>
     <t>厂家虚出台次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃险台次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃险金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃险渗透率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,7 +930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,6 +1094,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1433,13 +1448,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AT46"/>
+  <dimension ref="A1:AT48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG11" sqref="AG11"/>
+      <selection pane="bottomRight" activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1463,81 +1478,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="61"/>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
     </row>
     <row r="2" spans="1:46" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="63"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="64"/>
       <c r="AI2" s="21"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="21"/>
@@ -1659,7 +1674,7 @@
       <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="66" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="19"/>
@@ -1694,7 +1709,7 @@
       <c r="AF4" s="10"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="33">
-        <f t="shared" ref="AH4:AH46" si="0">SUM(C4:AG4)</f>
+        <f t="shared" ref="AH4:AH48" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="33"/>
@@ -1733,7 +1748,7 @@
       <c r="A5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="66"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="20"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1772,7 +1787,7 @@
       <c r="AI5" s="33"/>
       <c r="AJ5" s="12"/>
       <c r="AK5" s="35" t="e">
-        <f t="shared" ref="AK5:AK46" si="1">AH5/AI5</f>
+        <f t="shared" ref="AK5:AK48" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5"/>
@@ -1838,11 +1853,11 @@
         <v>34</v>
       </c>
       <c r="AN6" s="37">
-        <f>AH9+AH27</f>
+        <f>AH9+AH29</f>
         <v>0</v>
       </c>
       <c r="AO6" s="38" t="e">
-        <f>AH9/(AH9+AH27)</f>
+        <f>AH9/(AH9+AH29)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP6" s="38" t="e">
@@ -1862,7 +1877,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT6" s="38" t="e">
-        <f>AH40/AH9</f>
+        <f>AH42/AH9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1949,7 +1964,7 @@
       <c r="A8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="20"/>
@@ -2025,7 +2040,7 @@
       <c r="A9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="20"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2083,7 +2098,7 @@
       <c r="A10" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="20"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2130,7 +2145,7 @@
         <v>34</v>
       </c>
       <c r="AN10" s="37" t="e">
-        <f>AH41/AH40</f>
+        <f>AH43/AH42</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="38" t="e">
@@ -2154,7 +2169,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AT10" s="37" t="e">
-        <f>AH29/AH27</f>
+        <f>AH31/AH29</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2162,7 +2177,7 @@
       <c r="A11" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="20"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2241,7 +2256,7 @@
       <c r="A12" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="20"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2313,7 +2328,7 @@
       <c r="A13" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="20"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2365,7 +2380,7 @@
       <c r="AQ13" s="39"/>
       <c r="AR13" s="37"/>
       <c r="AS13" s="37">
-        <f>(AI9+AI27)*AN31/30</f>
+        <f>(AI9+AI29)*AN31/30</f>
         <v>0</v>
       </c>
       <c r="AT13" s="49">
@@ -2377,7 +2392,7 @@
       <c r="A14" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="20"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2424,15 +2439,15 @@
         <v>34</v>
       </c>
       <c r="AN14" s="41">
-        <f>AH35</f>
+        <f>AH37</f>
         <v>0</v>
       </c>
       <c r="AO14" s="38" t="e">
-        <f>(AH37+AH38+AH39)/AH9</f>
+        <f>(AH39+AH40+AH41)/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP14" s="50" t="e">
-        <f>AH36/(AH37+AH38+AH39)</f>
+        <f>AH38/(AH39+AH40+AH41)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ14" s="39" t="e">
@@ -2456,7 +2471,7 @@
       <c r="A15" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="20"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2529,7 +2544,7 @@
       <c r="A16" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="68"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="20"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2581,7 +2596,9 @@
       <c r="AO16" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="AP16" s="29"/>
+      <c r="AP16" s="29" t="s">
+        <v>105</v>
+      </c>
       <c r="AQ16" s="29"/>
       <c r="AR16" s="29"/>
       <c r="AS16" s="29"/>
@@ -2591,7 +2608,7 @@
       <c r="A17" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="68"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="20"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2638,7 +2655,7 @@
         <v>33</v>
       </c>
       <c r="AN17" s="41">
-        <f>AI20+AI22+AI18*0.5+AI32+AI36+AI24*0.3+AI42</f>
+        <f>AI20+AI22+AI18*0.5+AI34+AI38+AI24*0.3+AI44</f>
         <v>0</v>
       </c>
       <c r="AO17" s="38"/>
@@ -2652,7 +2669,7 @@
       <c r="A18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="68"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="20"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2699,14 +2716,17 @@
         <v>34</v>
       </c>
       <c r="AN18" s="41">
-        <f>AH24*0.3+AH20+AH22+AH18*0.5+AH32+AH36+AH42</f>
+        <f>AH24*0.3+AH20+AH22+AH18*0.5+AH34+AH38+AH44</f>
         <v>0</v>
       </c>
       <c r="AO18" s="38" t="e">
         <f>AH16/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP18" s="41"/>
+      <c r="AP18" s="41" t="e">
+        <f>AH27/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AQ18" s="37"/>
       <c r="AR18" s="37"/>
       <c r="AS18" s="37"/>
@@ -2716,7 +2736,7 @@
       <c r="A19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="68"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="20"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2770,7 +2790,10 @@
         <f>AO18/AO17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP19" s="39"/>
+      <c r="AP19" s="39" t="e">
+        <f>AP18/AP17</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AQ19" s="39"/>
       <c r="AR19" s="39"/>
       <c r="AS19" s="39"/>
@@ -2780,7 +2803,7 @@
       <c r="A20" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="20"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2823,19 +2846,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL20"/>
-      <c r="AM20" s="55" t="s">
+      <c r="AM20" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="AN20" s="56"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="56"/>
-      <c r="AQ20" s="57"/>
+      <c r="AN20" s="57"/>
+      <c r="AO20" s="57"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="58"/>
     </row>
     <row r="21" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="68"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="20"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2898,7 +2921,7 @@
       <c r="A22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="69"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="20"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -3122,7 +3145,7 @@
       <c r="AF25" s="10"/>
       <c r="AG25" s="16"/>
       <c r="AH25" s="33">
-        <f t="shared" ref="AH25:AH26" si="6">SUM(C25:AG25)</f>
+        <f t="shared" ref="AH25:AH28" si="6">SUM(C25:AG25)</f>
         <v>0</v>
       </c>
       <c r="AI25" s="33"/>
@@ -3188,17 +3211,15 @@
         <v>69</v>
       </c>
       <c r="AN26" s="1">
-        <f>AH46-AH9-AH27-AH33</f>
+        <f>AH48-AH9-AH29-AH35</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>8</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B27" s="55"/>
       <c r="C27" s="20"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3231,7 +3252,7 @@
       <c r="AF27" s="10"/>
       <c r="AG27" s="16"/>
       <c r="AH27" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI27" s="33"/>
@@ -3248,9 +3269,9 @@
     </row>
     <row r="28" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="65"/>
+        <v>104</v>
+      </c>
+      <c r="B28" s="55"/>
       <c r="C28" s="20"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3283,7 +3304,7 @@
       <c r="AF28" s="10"/>
       <c r="AG28" s="16"/>
       <c r="AH28" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI28" s="33"/>
@@ -3302,10 +3323,12 @@
       </c>
     </row>
     <row r="29" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="65"/>
+      <c r="A29" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>8</v>
+      </c>
       <c r="C29" s="20"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3338,7 +3361,7 @@
       <c r="AF29" s="10"/>
       <c r="AG29" s="16"/>
       <c r="AH29" s="33">
-        <f>SUM(C29:AG29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI29" s="33"/>
@@ -3355,9 +3378,9 @@
     </row>
     <row r="30" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="65"/>
+        <v>60</v>
+      </c>
+      <c r="B30" s="66"/>
       <c r="C30" s="20"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -3390,7 +3413,7 @@
       <c r="AF30" s="10"/>
       <c r="AG30" s="16"/>
       <c r="AH30" s="33">
-        <f t="shared" ref="AH30" si="7">SUM(C30:AG30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI30" s="33"/>
@@ -3410,9 +3433,9 @@
     </row>
     <row r="31" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="65"/>
+        <v>26</v>
+      </c>
+      <c r="B31" s="66"/>
       <c r="C31" s="20"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3461,10 +3484,10 @@
       <c r="AN31" s="1"/>
     </row>
     <row r="32" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="65"/>
+      <c r="A32" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="66"/>
       <c r="C32" s="20"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3497,7 +3520,7 @@
       <c r="AF32" s="10"/>
       <c r="AG32" s="16"/>
       <c r="AH32" s="33">
-        <f>SUM(C32:AG32)</f>
+        <f t="shared" ref="AH32" si="7">SUM(C32:AG32)</f>
         <v>0</v>
       </c>
       <c r="AI32" s="33"/>
@@ -3516,8 +3539,8 @@
       </c>
     </row>
     <row r="33" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="24" t="s">
-        <v>9</v>
+      <c r="A33" s="25" t="s">
+        <v>54</v>
       </c>
       <c r="B33" s="66"/>
       <c r="C33" s="20"/>
@@ -3552,7 +3575,7 @@
       <c r="AF33" s="10"/>
       <c r="AG33" s="16"/>
       <c r="AH33" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C33:AG33)</f>
         <v>0</v>
       </c>
       <c r="AI33" s="33"/>
@@ -3568,12 +3591,10 @@
       <c r="AN33" s="1"/>
     </row>
     <row r="34" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="64" t="s">
-        <v>10</v>
-      </c>
+      <c r="A34" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="66"/>
       <c r="C34" s="20"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3606,7 +3627,7 @@
       <c r="AF34" s="10"/>
       <c r="AG34" s="16"/>
       <c r="AH34" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C34:AG34)</f>
         <v>0</v>
       </c>
       <c r="AI34" s="33"/>
@@ -3619,9 +3640,9 @@
     </row>
     <row r="35" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="66"/>
+        <v>9</v>
+      </c>
+      <c r="B35" s="67"/>
       <c r="C35" s="20"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3666,10 +3687,12 @@
       <c r="AL35"/>
     </row>
     <row r="36" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="22"/>
+      <c r="A36" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>10</v>
+      </c>
       <c r="C36" s="20"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3702,7 +3725,7 @@
       <c r="AF36" s="10"/>
       <c r="AG36" s="16"/>
       <c r="AH36" s="33">
-        <f>SUM(C36:AG36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI36" s="33"/>
@@ -3715,11 +3738,9 @@
     </row>
     <row r="37" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="64" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B37" s="67"/>
       <c r="C37" s="20"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3764,10 +3785,10 @@
       <c r="AL37"/>
     </row>
     <row r="38" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="65"/>
+      <c r="A38" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="22"/>
       <c r="C38" s="20"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3800,7 +3821,7 @@
       <c r="AF38" s="10"/>
       <c r="AG38" s="16"/>
       <c r="AH38" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C38:AG38)</f>
         <v>0</v>
       </c>
       <c r="AI38" s="33"/>
@@ -3813,9 +3834,11 @@
     </row>
     <row r="39" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="65"/>
+        <v>42</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>12</v>
+      </c>
       <c r="C39" s="20"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3857,12 +3880,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL39"/>
     </row>
     <row r="40" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="65"/>
+      <c r="A40" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="66"/>
       <c r="C40" s="20"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3895,7 +3919,7 @@
       <c r="AF40" s="10"/>
       <c r="AG40" s="16"/>
       <c r="AH40" s="33">
-        <f>SUM(C40:AG40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI40" s="33"/>
@@ -3904,10 +3928,11 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL40"/>
     </row>
     <row r="41" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="24" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B41" s="66"/>
       <c r="C41" s="20"/>
@@ -3916,7 +3941,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="5"/>
+      <c r="I41" s="4"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3942,29 +3967,28 @@
       <c r="AF41" s="10"/>
       <c r="AG41" s="16"/>
       <c r="AH41" s="33">
-        <f>SUM(C41:AG41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI41" s="33"/>
       <c r="AJ41" s="12"/>
       <c r="AK41" s="35" t="e">
-        <f>AH41/AI41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL41"/>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="42" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="43"/>
+      <c r="A42" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="66"/>
       <c r="C42" s="20"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="5"/>
+      <c r="I42" s="4"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3996,25 +4020,22 @@
       <c r="AI42" s="33"/>
       <c r="AJ42" s="12"/>
       <c r="AK42" s="35" t="e">
-        <f>AH42/AI42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL42"/>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="43" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="64" t="s">
-        <v>14</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B43" s="67"/>
       <c r="C43" s="20"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -4040,28 +4061,29 @@
       <c r="AF43" s="10"/>
       <c r="AG43" s="16"/>
       <c r="AH43" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C43:AG43)</f>
         <v>0</v>
       </c>
       <c r="AI43" s="33"/>
       <c r="AJ43" s="12"/>
       <c r="AK43" s="35" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f>AH43/AI43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL43"/>
     </row>
     <row r="44" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="65"/>
+        <v>74</v>
+      </c>
+      <c r="B44" s="43"/>
       <c r="C44" s="20"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -4087,21 +4109,24 @@
       <c r="AF44" s="10"/>
       <c r="AG44" s="16"/>
       <c r="AH44" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C44:AG44)</f>
         <v>0</v>
       </c>
       <c r="AI44" s="33"/>
       <c r="AJ44" s="12"/>
       <c r="AK44" s="35" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f>AH44/AI44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL44"/>
     </row>
     <row r="45" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="66"/>
+        <v>13</v>
+      </c>
+      <c r="B45" s="65" t="s">
+        <v>14</v>
+      </c>
       <c r="C45" s="20"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -4145,11 +4170,11 @@
       </c>
     </row>
     <row r="46" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="47"/>
-      <c r="C46" s="46"/>
+      <c r="A46" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="66"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -4185,10 +4210,104 @@
         <v>0</v>
       </c>
       <c r="AI46" s="33"/>
-      <c r="AJ46" s="13" t="s">
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="67"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="16"/>
+      <c r="AH47" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI47" s="33"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="47"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="16"/>
+      <c r="AH48" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI48" s="33"/>
+      <c r="AJ48" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AK46" s="35" t="e">
+      <c r="AK48" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -4197,11 +4316,11 @@
   <mergeCells count="8">
     <mergeCell ref="AM20:AQ20"/>
     <mergeCell ref="A1:AH2"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B39:B43"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="B8:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t>林勇</t>
   </si>
@@ -436,6 +436,10 @@
   </si>
   <si>
     <t>玻璃险渗透率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展厅新增订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1451,10 +1455,10 @@
   <dimension ref="A1:AT48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AI15" sqref="AI15"/>
+      <selection pane="bottomRight" activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2599,7 +2603,9 @@
       <c r="AP16" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="AQ16" s="29"/>
+      <c r="AQ16" s="29" t="s">
+        <v>106</v>
+      </c>
       <c r="AR16" s="29"/>
       <c r="AS16" s="29"/>
       <c r="AT16" s="29"/>
@@ -2660,7 +2666,10 @@
       </c>
       <c r="AO17" s="38"/>
       <c r="AP17" s="41"/>
-      <c r="AQ17" s="37"/>
+      <c r="AQ17" s="37">
+        <f>AI8-AN29</f>
+        <v>0</v>
+      </c>
       <c r="AR17" s="37"/>
       <c r="AS17" s="37"/>
       <c r="AT17" s="41"/>
@@ -2727,7 +2736,10 @@
         <f>AH27/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ18" s="37"/>
+      <c r="AQ18" s="37">
+        <f>AH8-AN29</f>
+        <v>0</v>
+      </c>
       <c r="AR18" s="37"/>
       <c r="AS18" s="37"/>
       <c r="AT18" s="41"/>
@@ -2794,7 +2806,10 @@
         <f>AP18/AP17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ19" s="39"/>
+      <c r="AQ19" s="39" t="e">
+        <f>AQ18/AQ17</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AR19" s="39"/>
       <c r="AS19" s="39"/>
       <c r="AT19" s="39"/>

--- a/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
   <si>
     <t>林勇</t>
   </si>
@@ -440,6 +440,10 @@
   </si>
   <si>
     <t>展厅新增订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在库超3个月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1455,10 +1459,10 @@
   <dimension ref="A1:AT48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AI11" sqref="AI11"/>
+      <selection pane="bottomRight" activeCell="AN32" sqref="AN32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1869,7 +1873,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ6" s="38" t="e">
-        <f>(AH8-AN29)/AH5</f>
+        <f>(AH8-AN30)/AH5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR6" s="38" t="e">
@@ -2384,7 +2388,7 @@
       <c r="AQ13" s="39"/>
       <c r="AR13" s="37"/>
       <c r="AS13" s="37">
-        <f>(AI9+AI29)*AN31/30</f>
+        <f>(AI9+AI29)*AN32/30</f>
         <v>0</v>
       </c>
       <c r="AT13" s="49">
@@ -2667,7 +2671,7 @@
       <c r="AO17" s="38"/>
       <c r="AP17" s="41"/>
       <c r="AQ17" s="37">
-        <f>AI8-AN29</f>
+        <f>AI8-AN30</f>
         <v>0</v>
       </c>
       <c r="AR17" s="37"/>
@@ -2737,7 +2741,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ18" s="37">
-        <f>AH8-AN29</f>
+        <f>AH8-AN30</f>
         <v>0</v>
       </c>
       <c r="AR18" s="37"/>
@@ -3278,7 +3282,7 @@
       </c>
       <c r="AL27"/>
       <c r="AM27" s="34" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="AN27" s="1"/>
     </row>
@@ -3330,12 +3334,9 @@
       </c>
       <c r="AL28"/>
       <c r="AM28" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN28" s="1">
-        <f>AN26+AN27</f>
-        <v>0</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="AN28" s="1"/>
     </row>
     <row r="29" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="24" t="s">
@@ -3387,9 +3388,12 @@
       </c>
       <c r="AL29"/>
       <c r="AM29" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN29" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="AN29" s="1">
+        <f>AN26+AN28</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="24" t="s">
@@ -3439,12 +3443,9 @@
       </c>
       <c r="AL30"/>
       <c r="AM30" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN30" s="1">
-        <f>AH8-AH9</f>
-        <v>0</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AN30" s="1"/>
     </row>
     <row r="31" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -3494,9 +3495,12 @@
       </c>
       <c r="AL31"/>
       <c r="AM31" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN31" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="AN31" s="1">
+        <f>AH8-AH9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="24" t="s">
@@ -3546,12 +3550,9 @@
       </c>
       <c r="AL32"/>
       <c r="AM32" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN32" s="1">
-        <f>AH11-AH12</f>
-        <v>0</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AN32" s="1"/>
     </row>
     <row r="33" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="25" t="s">
@@ -3601,9 +3602,12 @@
       </c>
       <c r="AL33"/>
       <c r="AM33" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN33" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="AN33" s="1">
+        <f>AH11-AH12</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="25" t="s">
@@ -3652,6 +3656,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL34"/>
+      <c r="AM34" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN34" s="1"/>
     </row>
     <row r="35" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="24" t="s">

--- a/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
   <si>
     <t>林勇</t>
   </si>
@@ -211,14 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>延保总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延保台次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按揭净收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,14 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>终身免费保养台次（含赠送）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终身免费保养总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其中他品牌新增订单台次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -415,10 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预留订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>转介绍率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,14 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玻璃险台次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃险金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玻璃险渗透率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,6 +416,70 @@
   </si>
   <si>
     <t>在库超3个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延保无忧车服务购买个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延保无忧车服务购买金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃无忧服务购买个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃无忧服务购买金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机油套餐购买个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机油套餐购买金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划痕无忧服务购买个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划痕无忧服务购买金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主延保无忧车服务购买个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主延保无忧车服务购买金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家延保无忧车服务购买个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家延保无忧车服务购买金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机油套餐渗透率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无忧划痕渗透率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费保养总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费保养台次（含赠送）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,7 +974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1105,6 +1141,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1456,13 +1498,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AT48"/>
+  <dimension ref="A1:AT55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AN32" sqref="AN32"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1486,81 +1528,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="63"/>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
     </row>
     <row r="2" spans="1:46" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="64"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="66"/>
       <c r="AI2" s="21"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="21"/>
@@ -1675,14 +1717,14 @@
         <v>3</v>
       </c>
       <c r="AK3" s="31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="19"/>
@@ -1717,7 +1759,7 @@
       <c r="AF4" s="10"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="33">
-        <f t="shared" ref="AH4:AH48" si="0">SUM(C4:AG4)</f>
+        <f t="shared" ref="AH4:AH55" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="33"/>
@@ -1731,7 +1773,7 @@
         <v>27</v>
       </c>
       <c r="AN4" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AO4" s="36" t="s">
         <v>30</v>
@@ -1749,14 +1791,14 @@
         <v>32</v>
       </c>
       <c r="AT4" s="36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="20"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1795,7 +1837,7 @@
       <c r="AI5" s="33"/>
       <c r="AJ5" s="12"/>
       <c r="AK5" s="35" t="e">
-        <f t="shared" ref="AK5:AK48" si="1">AH5/AI5</f>
+        <f t="shared" ref="AK5:AK55" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5"/>
@@ -1812,7 +1854,7 @@
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="20"/>
@@ -1861,11 +1903,11 @@
         <v>34</v>
       </c>
       <c r="AN6" s="37">
-        <f>AH9+AH29</f>
+        <f>AH9+AH36</f>
         <v>0</v>
       </c>
       <c r="AO6" s="38" t="e">
-        <f>AH9/(AH9+AH29)</f>
+        <f>AH9/(AH9+AH36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP6" s="38" t="e">
@@ -1877,15 +1919,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR6" s="38" t="e">
-        <f>AH19/AH9</f>
+        <f>AH18/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS6" s="37" t="e">
-        <f>AH20/AH19</f>
+        <f>AH19/AH18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT6" s="38" t="e">
-        <f>AH42/AH9</f>
+        <f>AH49/AH9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1937,7 +1979,7 @@
       </c>
       <c r="AL7"/>
       <c r="AM7" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AN7" s="39" t="e">
         <f t="shared" ref="AN7:AT7" si="2">AN6/AN5</f>
@@ -1972,7 +2014,7 @@
       <c r="A8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="70" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="20"/>
@@ -2023,7 +2065,7 @@
         <v>27</v>
       </c>
       <c r="AN8" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AO8" s="40" t="s">
         <v>35</v>
@@ -2038,17 +2080,17 @@
         <v>38</v>
       </c>
       <c r="AS8" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AT8" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="20"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2081,7 +2123,7 @@
       <c r="AF9" s="10"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="33">
-        <f t="shared" ref="AH9:AH19" si="3">SUM(C9:AG9)</f>
+        <f t="shared" ref="AH9:AH18" si="3">SUM(C9:AG9)</f>
         <v>0</v>
       </c>
       <c r="AI9" s="33"/>
@@ -2104,9 +2146,9 @@
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="69"/>
+        <v>79</v>
+      </c>
+      <c r="B10" s="71"/>
       <c r="C10" s="20"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2153,39 +2195,39 @@
         <v>34</v>
       </c>
       <c r="AN10" s="37" t="e">
-        <f>AH43/AH42</f>
+        <f>AH50/AH49</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="38" t="e">
-        <f>AH21/AH9</f>
+        <f>AH20/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" s="37" t="e">
-        <f>AH22/AH21</f>
+        <f>AH21/AH20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" s="38" t="e">
-        <f>AH23/AH9</f>
+        <f>AH22/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" s="38" t="e">
+        <f>AH16/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS10" s="37" t="e">
         <f>AH17/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS10" s="37" t="e">
-        <f>AH18/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AT10" s="37" t="e">
-        <f>AH31/AH29</f>
+        <f>AH38/AH36</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="69"/>
+        <v>82</v>
+      </c>
+      <c r="B11" s="71"/>
       <c r="C11" s="20"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2229,7 +2271,7 @@
       </c>
       <c r="AL11"/>
       <c r="AM11" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AN11" s="42" t="e">
         <f t="shared" ref="AN11:AT11" si="4">AN10/AN9</f>
@@ -2262,9 +2304,9 @@
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="69"/>
+        <v>83</v>
+      </c>
+      <c r="B12" s="71"/>
       <c r="C12" s="20"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2311,32 +2353,32 @@
         <v>27</v>
       </c>
       <c r="AN12" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AO12" s="29" t="s">
         <v>41</v>
       </c>
       <c r="AP12" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AQ12" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AR12" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AS12" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AT12" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="69"/>
+        <v>84</v>
+      </c>
+      <c r="B13" s="71"/>
       <c r="C13" s="20"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2388,7 +2430,7 @@
       <c r="AQ13" s="39"/>
       <c r="AR13" s="37"/>
       <c r="AS13" s="37">
-        <f>(AI9+AI29)*AN32/30</f>
+        <f>(AI9+AI36)*AN32/30</f>
         <v>0</v>
       </c>
       <c r="AT13" s="49">
@@ -2398,9 +2440,9 @@
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="69"/>
+        <v>85</v>
+      </c>
+      <c r="B14" s="71"/>
       <c r="C14" s="20"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2447,23 +2489,23 @@
         <v>34</v>
       </c>
       <c r="AN14" s="41">
-        <f>AH37</f>
+        <f>AH44</f>
         <v>0</v>
       </c>
       <c r="AO14" s="38" t="e">
-        <f>(AH39+AH40+AH41)/AH9</f>
+        <f>(AH46+AH47+AH48)/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP14" s="50" t="e">
-        <f>AH38/(AH39+AH40+AH41)</f>
+        <f>AH45/(AH46+AH47+AH48)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ14" s="39" t="e">
-        <f>AH25/AH9</f>
+        <f>AH28/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR14" s="37" t="e">
-        <f>AH26/AH25</f>
+        <f>AH29/AH28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS14" s="37">
@@ -2477,9 +2519,9 @@
     </row>
     <row r="15" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="69"/>
+        <v>81</v>
+      </c>
+      <c r="B15" s="71"/>
       <c r="C15" s="20"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2523,7 +2565,7 @@
       </c>
       <c r="AL15"/>
       <c r="AM15" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AN15" s="39" t="e">
         <f>AN14/AN13</f>
@@ -2550,9 +2592,9 @@
     </row>
     <row r="16" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="69"/>
+        <v>24</v>
+      </c>
+      <c r="B16" s="71"/>
       <c r="C16" s="20"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2599,26 +2641,30 @@
         <v>27</v>
       </c>
       <c r="AN16" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AO16" s="29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AP16" s="29" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AQ16" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR16" s="29"/>
-      <c r="AS16" s="29"/>
+        <v>99</v>
+      </c>
+      <c r="AR16" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS16" s="29" t="s">
+        <v>114</v>
+      </c>
       <c r="AT16" s="29"/>
     </row>
     <row r="17" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="69"/>
+        <v>25</v>
+      </c>
+      <c r="B17" s="71"/>
       <c r="C17" s="20"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2665,24 +2711,24 @@
         <v>33</v>
       </c>
       <c r="AN17" s="41">
-        <f>AI20+AI22+AI18*0.5+AI34+AI38+AI24*0.3+AI44</f>
+        <f>AI19+AI21+AI17*0.5+AI41+AI45+AI23*0.3+AI51</f>
         <v>0</v>
       </c>
       <c r="AO17" s="38"/>
-      <c r="AP17" s="41"/>
+      <c r="AP17" s="39"/>
       <c r="AQ17" s="37">
         <f>AI8-AN30</f>
         <v>0</v>
       </c>
-      <c r="AR17" s="37"/>
-      <c r="AS17" s="37"/>
+      <c r="AR17" s="39"/>
+      <c r="AS17" s="39"/>
       <c r="AT17" s="41"/>
     </row>
     <row r="18" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="69"/>
+      <c r="A18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="71"/>
       <c r="C18" s="20"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2729,30 +2775,36 @@
         <v>34</v>
       </c>
       <c r="AN18" s="41">
-        <f>AH24*0.3+AH20+AH22+AH18*0.5+AH34+AH38+AH44</f>
+        <f>AH23*0.3+AH19+AH21+AH17*0.5+AH41+AH45+AH51</f>
         <v>0</v>
       </c>
       <c r="AO18" s="38" t="e">
-        <f>AH16/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP18" s="41" t="e">
-        <f>AH27/AH9</f>
+        <f>AH15/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP18" s="39" t="e">
+        <f>AH30/AH9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ18" s="37">
         <f>AH8-AN30</f>
         <v>0</v>
       </c>
-      <c r="AR18" s="37"/>
-      <c r="AS18" s="37"/>
+      <c r="AR18" s="39" t="e">
+        <f>AH32/AH9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS18" s="39" t="e">
+        <f>AH34/AH49</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT18" s="41"/>
     </row>
     <row r="19" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="69"/>
+      <c r="A19" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="71"/>
       <c r="C19" s="20"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2785,7 +2837,7 @@
       <c r="AF19" s="10"/>
       <c r="AG19" s="16"/>
       <c r="AH19" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI19" s="33"/>
@@ -2796,33 +2848,39 @@
       </c>
       <c r="AL19"/>
       <c r="AM19" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AN19" s="39" t="e">
-        <f>AN18/AN17</f>
+        <f t="shared" ref="AN19:AS19" si="5">AN18/AN17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO19" s="39" t="e">
-        <f>AO18/AO17</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP19" s="39" t="e">
-        <f>AP18/AP17</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ19" s="39" t="e">
-        <f>AQ18/AQ17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR19" s="39"/>
-      <c r="AS19" s="39"/>
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR19" s="39" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS19" s="39" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT19" s="39"/>
     </row>
     <row r="20" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="69"/>
+      <c r="A20" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="71"/>
       <c r="C20" s="20"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2855,7 +2913,7 @@
       <c r="AF20" s="10"/>
       <c r="AG20" s="16"/>
       <c r="AH20" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C20:AG20)</f>
         <v>0</v>
       </c>
       <c r="AI20" s="33"/>
@@ -2865,19 +2923,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL20"/>
-      <c r="AM20" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN20" s="57"/>
-      <c r="AO20" s="57"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="58"/>
+      <c r="AM20" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN20" s="59"/>
+      <c r="AO20" s="59"/>
+      <c r="AP20" s="59"/>
+      <c r="AQ20" s="60"/>
     </row>
     <row r="21" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="69"/>
+      <c r="A21" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="72"/>
       <c r="C21" s="20"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2910,7 +2968,7 @@
       <c r="AF21" s="10"/>
       <c r="AG21" s="16"/>
       <c r="AH21" s="33">
-        <f>SUM(C21:AG21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI21" s="33"/>
@@ -2921,26 +2979,26 @@
       </c>
       <c r="AL21"/>
       <c r="AM21" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN21" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO21" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP21" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="AN21" s="54" t="s">
+      <c r="AQ21" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="AO21" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP21" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ21" s="54" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="22" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="70"/>
+      <c r="A22" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="27"/>
       <c r="C22" s="20"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2973,7 +3031,7 @@
       <c r="AF22" s="10"/>
       <c r="AG22" s="16"/>
       <c r="AH22" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C22:AG22)</f>
         <v>0</v>
       </c>
       <c r="AI22" s="33"/>
@@ -2984,7 +3042,7 @@
       </c>
       <c r="AL22"/>
       <c r="AM22" s="53" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AN22" s="37"/>
       <c r="AO22" s="37"/>
@@ -2992,10 +3050,12 @@
       <c r="AQ22" s="37"/>
     </row>
     <row r="23" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="27"/>
+      <c r="A23" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="C23" s="20"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -3039,7 +3099,7 @@
       </c>
       <c r="AL23"/>
       <c r="AM23" s="53" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AN23" s="37">
         <f>AH12</f>
@@ -3060,11 +3120,9 @@
     </row>
     <row r="24" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>7</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B24" s="57"/>
       <c r="C24" s="20"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -3097,7 +3155,7 @@
       <c r="AF24" s="10"/>
       <c r="AG24" s="16"/>
       <c r="AH24" s="33">
-        <f>SUM(C24:AG24)</f>
+        <f t="shared" ref="AH24:AH27" si="6">SUM(C24:AG24)</f>
         <v>0</v>
       </c>
       <c r="AI24" s="33"/>
@@ -3108,30 +3166,30 @@
       </c>
       <c r="AL24"/>
       <c r="AM24" s="53" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AN24" s="37" t="e">
         <f>AN23/AN22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO24" s="37" t="e">
-        <f t="shared" ref="AO24:AQ24" si="5">AO23/AO22</f>
+        <f t="shared" ref="AO24:AQ24" si="7">AO23/AO22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP24" s="37" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ24" s="37" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="44"/>
+        <v>110</v>
+      </c>
+      <c r="B25" s="57"/>
       <c r="C25" s="20"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -3164,26 +3222,26 @@
       <c r="AF25" s="10"/>
       <c r="AG25" s="16"/>
       <c r="AH25" s="33">
-        <f t="shared" ref="AH25:AH28" si="6">SUM(C25:AG25)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI25" s="33"/>
       <c r="AJ25" s="12"/>
       <c r="AK25" s="35" t="e">
-        <f>AH25/AI25</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL25"/>
       <c r="AM25" s="51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AN25" s="52"/>
     </row>
     <row r="26" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="44"/>
+        <v>111</v>
+      </c>
+      <c r="B26" s="57"/>
       <c r="C26" s="20"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -3227,18 +3285,18 @@
       </c>
       <c r="AL26"/>
       <c r="AM26" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AN26" s="1">
-        <f>AH48-AH9-AH29-AH35</f>
+        <f>AH55-AH9-AH36-AH42</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="55"/>
+        <v>112</v>
+      </c>
+      <c r="B27" s="57"/>
       <c r="C27" s="20"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3282,15 +3340,15 @@
       </c>
       <c r="AL27"/>
       <c r="AM27" s="34" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AN27" s="1"/>
     </row>
     <row r="28" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="55"/>
+        <v>116</v>
+      </c>
+      <c r="B28" s="44"/>
       <c r="C28" s="20"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3323,28 +3381,26 @@
       <c r="AF28" s="10"/>
       <c r="AG28" s="16"/>
       <c r="AH28" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AH28:AH35" si="8">SUM(C28:AG28)</f>
         <v>0</v>
       </c>
       <c r="AI28" s="33"/>
       <c r="AJ28" s="12"/>
       <c r="AK28" s="35" t="e">
-        <f t="shared" si="1"/>
+        <f>AH28/AI28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL28"/>
       <c r="AM28" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AN28" s="1"/>
     </row>
     <row r="29" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="65" t="s">
-        <v>8</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B29" s="44"/>
       <c r="C29" s="20"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3377,7 +3433,7 @@
       <c r="AF29" s="10"/>
       <c r="AG29" s="16"/>
       <c r="AH29" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI29" s="33"/>
@@ -3388,7 +3444,7 @@
       </c>
       <c r="AL29"/>
       <c r="AM29" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AN29" s="1">
         <f>AN26+AN28</f>
@@ -3397,9 +3453,9 @@
     </row>
     <row r="30" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="66"/>
+        <v>103</v>
+      </c>
+      <c r="B30" s="55"/>
       <c r="C30" s="20"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -3432,7 +3488,7 @@
       <c r="AF30" s="10"/>
       <c r="AG30" s="16"/>
       <c r="AH30" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI30" s="33"/>
@@ -3443,15 +3499,15 @@
       </c>
       <c r="AL30"/>
       <c r="AM30" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AN30" s="1"/>
     </row>
     <row r="31" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="66"/>
+      <c r="A31" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="55"/>
       <c r="C31" s="20"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3484,7 +3540,7 @@
       <c r="AF31" s="10"/>
       <c r="AG31" s="16"/>
       <c r="AH31" s="33">
-        <f>SUM(C31:AG31)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI31" s="33"/>
@@ -3495,7 +3551,7 @@
       </c>
       <c r="AL31"/>
       <c r="AM31" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AN31" s="1">
         <f>AH8-AH9</f>
@@ -3504,9 +3560,9 @@
     </row>
     <row r="32" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="66"/>
+        <v>105</v>
+      </c>
+      <c r="B32" s="56"/>
       <c r="C32" s="20"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3539,7 +3595,7 @@
       <c r="AF32" s="10"/>
       <c r="AG32" s="16"/>
       <c r="AH32" s="33">
-        <f t="shared" ref="AH32" si="7">SUM(C32:AG32)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI32" s="33"/>
@@ -3550,15 +3606,15 @@
       </c>
       <c r="AL32"/>
       <c r="AM32" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN32" s="1"/>
     </row>
     <row r="33" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="66"/>
+      <c r="A33" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="56"/>
       <c r="C33" s="20"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3591,7 +3647,7 @@
       <c r="AF33" s="10"/>
       <c r="AG33" s="16"/>
       <c r="AH33" s="33">
-        <f>SUM(C33:AG33)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI33" s="33"/>
@@ -3602,7 +3658,7 @@
       </c>
       <c r="AL33"/>
       <c r="AM33" s="34" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AN33" s="1">
         <f>AH11-AH12</f>
@@ -3610,10 +3666,10 @@
       </c>
     </row>
     <row r="34" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="66"/>
+      <c r="A34" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="56"/>
       <c r="C34" s="20"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3646,7 +3702,7 @@
       <c r="AF34" s="10"/>
       <c r="AG34" s="16"/>
       <c r="AH34" s="33">
-        <f>SUM(C34:AG34)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI34" s="33"/>
@@ -3657,15 +3713,15 @@
       </c>
       <c r="AL34"/>
       <c r="AM34" s="34" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AN34" s="1"/>
     </row>
     <row r="35" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="67"/>
+        <v>108</v>
+      </c>
+      <c r="B35" s="56"/>
       <c r="C35" s="20"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3698,7 +3754,7 @@
       <c r="AF35" s="10"/>
       <c r="AG35" s="16"/>
       <c r="AH35" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI35" s="33"/>
@@ -3710,11 +3766,11 @@
       <c r="AL35"/>
     </row>
     <row r="36" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="65" t="s">
-        <v>10</v>
+      <c r="A36" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>8</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="4"/>
@@ -3761,9 +3817,9 @@
     </row>
     <row r="37" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="67"/>
+        <v>58</v>
+      </c>
+      <c r="B37" s="68"/>
       <c r="C37" s="20"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3809,9 +3865,9 @@
     </row>
     <row r="38" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="B38" s="68"/>
       <c r="C38" s="20"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3857,11 +3913,9 @@
     </row>
     <row r="39" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="65" t="s">
-        <v>12</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B39" s="68"/>
       <c r="C39" s="20"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3894,7 +3948,7 @@
       <c r="AF39" s="10"/>
       <c r="AG39" s="16"/>
       <c r="AH39" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AH39" si="9">SUM(C39:AG39)</f>
         <v>0</v>
       </c>
       <c r="AI39" s="33"/>
@@ -3906,10 +3960,10 @@
       <c r="AL39"/>
     </row>
     <row r="40" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="66"/>
+      <c r="A40" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="68"/>
       <c r="C40" s="20"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3942,7 +3996,7 @@
       <c r="AF40" s="10"/>
       <c r="AG40" s="16"/>
       <c r="AH40" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C40:AG40)</f>
         <v>0</v>
       </c>
       <c r="AI40" s="33"/>
@@ -3954,10 +4008,10 @@
       <c r="AL40"/>
     </row>
     <row r="41" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="66"/>
+      <c r="A41" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="68"/>
       <c r="C41" s="20"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -3990,7 +4044,7 @@
       <c r="AF41" s="10"/>
       <c r="AG41" s="16"/>
       <c r="AH41" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C41:AG41)</f>
         <v>0</v>
       </c>
       <c r="AI41" s="33"/>
@@ -3999,12 +4053,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL41"/>
     </row>
     <row r="42" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="66"/>
+      <c r="A42" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="69"/>
       <c r="C42" s="20"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -4037,7 +4092,7 @@
       <c r="AF42" s="10"/>
       <c r="AG42" s="16"/>
       <c r="AH42" s="33">
-        <f>SUM(C42:AG42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI42" s="33"/>
@@ -4046,19 +4101,22 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL42"/>
     </row>
     <row r="43" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="67"/>
+      <c r="A43" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="67" t="s">
+        <v>10</v>
+      </c>
       <c r="C43" s="20"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="5"/>
+      <c r="I43" s="4"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -4084,29 +4142,29 @@
       <c r="AF43" s="10"/>
       <c r="AG43" s="16"/>
       <c r="AH43" s="33">
-        <f>SUM(C43:AG43)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI43" s="33"/>
       <c r="AJ43" s="12"/>
       <c r="AK43" s="35" t="e">
-        <f>AH43/AI43</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL43"/>
     </row>
     <row r="44" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="43"/>
+        <v>11</v>
+      </c>
+      <c r="B44" s="69"/>
       <c r="C44" s="20"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="5"/>
+      <c r="I44" s="4"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -4132,24 +4190,22 @@
       <c r="AF44" s="10"/>
       <c r="AG44" s="16"/>
       <c r="AH44" s="33">
-        <f>SUM(C44:AG44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI44" s="33"/>
       <c r="AJ44" s="12"/>
       <c r="AK44" s="35" t="e">
-        <f>AH44/AI44</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL44"/>
     </row>
     <row r="45" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="65" t="s">
-        <v>14</v>
-      </c>
+      <c r="A45" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="22"/>
       <c r="C45" s="20"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -4182,7 +4238,7 @@
       <c r="AF45" s="10"/>
       <c r="AG45" s="16"/>
       <c r="AH45" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C45:AG45)</f>
         <v>0</v>
       </c>
       <c r="AI45" s="33"/>
@@ -4191,12 +4247,15 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL45"/>
     </row>
     <row r="46" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="66"/>
+        <v>42</v>
+      </c>
+      <c r="B46" s="67" t="s">
+        <v>12</v>
+      </c>
       <c r="C46" s="20"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -4238,12 +4297,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL46"/>
     </row>
     <row r="47" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="67"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="68"/>
       <c r="C47" s="20"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -4285,13 +4345,14 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL47"/>
     </row>
     <row r="48" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="46"/>
+      <c r="A48" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="68"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -4327,10 +4388,343 @@
         <v>0</v>
       </c>
       <c r="AI48" s="33"/>
-      <c r="AJ48" s="13" t="s">
+      <c r="AJ48" s="12"/>
+      <c r="AK48" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="68"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="16"/>
+      <c r="AH49" s="33">
+        <f>SUM(C49:AG49)</f>
+        <v>0</v>
+      </c>
+      <c r="AI49" s="33"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="69"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="16"/>
+      <c r="AH50" s="33">
+        <f>SUM(C50:AG50)</f>
+        <v>0</v>
+      </c>
+      <c r="AI50" s="33"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="35" t="e">
+        <f>AH50/AI50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL50"/>
+    </row>
+    <row r="51" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="16"/>
+      <c r="AH51" s="33">
+        <f>SUM(C51:AG51)</f>
+        <v>0</v>
+      </c>
+      <c r="AI51" s="33"/>
+      <c r="AJ51" s="12"/>
+      <c r="AK51" s="35" t="e">
+        <f>AH51/AI51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL51"/>
+    </row>
+    <row r="52" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="16"/>
+      <c r="AH52" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI52" s="33"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="68"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="16"/>
+      <c r="AH53" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI53" s="33"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="69"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="16"/>
+      <c r="AH54" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI54" s="33"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="47"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="16"/>
+      <c r="AH55" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI55" s="33"/>
+      <c r="AJ55" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AK48" s="35" t="e">
+      <c r="AK55" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -4339,12 +4733,12 @@
   <mergeCells count="8">
     <mergeCell ref="AM20:AQ20"/>
     <mergeCell ref="A1:AH2"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B46:B50"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B8:B22"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B8:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
@@ -1504,7 +1504,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomRight" activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1520,7 +1520,7 @@
     <col min="38" max="38" width="7.5" style="2" customWidth="1"/>
     <col min="39" max="39" width="17.25" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="12.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12" style="17" customWidth="1"/>
     <col min="42" max="42" width="12.25" style="17" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="13.125" style="17" customWidth="1"/>
     <col min="44" max="44" width="14.125" style="17" bestFit="1" customWidth="1"/>
@@ -2074,16 +2074,16 @@
         <v>36</v>
       </c>
       <c r="AQ8" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AR8" s="40" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AS8" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT8" s="40" t="s">
         <v>66</v>
+      </c>
+      <c r="AT8" s="29" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1">
@@ -2140,9 +2140,9 @@
       <c r="AO9" s="38"/>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
+      <c r="AR9" s="37"/>
       <c r="AS9" s="37"/>
-      <c r="AT9" s="37"/>
+      <c r="AT9" s="41"/>
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="24" t="s">
@@ -2207,20 +2207,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" s="38" t="e">
-        <f>AH22/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR10" s="38" t="e">
-        <f>AH16/AH9</f>
+        <f>AG16/AG9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR10" s="37" t="e">
+        <f>AG17/AG9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10" s="37" t="e">
-        <f>AH17/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT10" s="37" t="e">
-        <f>AH38/AH36</f>
-        <v>#DIV/0!</v>
+        <f>AG38/AG36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT10" s="41">
+        <f>AH44</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1">
@@ -2286,19 +2286,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ11" s="42" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AQ11:AS11" si="5">AQ10/AQ9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR11" s="42" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS11" s="42" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT11" s="42" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT11" s="39" t="e">
+        <f>AT10/AT9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2353,25 +2353,25 @@
         <v>27</v>
       </c>
       <c r="AN12" s="29" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="AO12" s="29" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AP12" s="29" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AQ12" s="29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AR12" s="29" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="AS12" s="29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AT12" s="29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1">
@@ -2424,17 +2424,20 @@
       <c r="AM13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AN13" s="41"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="39"/>
-      <c r="AR13" s="37"/>
-      <c r="AS13" s="37">
+      <c r="AN13" s="38"/>
+      <c r="AO13" s="41"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="37"/>
+      <c r="AR13" s="37">
         <f>(AI9+AI36)*AN32/30</f>
         <v>0</v>
       </c>
-      <c r="AT13" s="49">
-        <f>AS13*AN25*0.0075</f>
+      <c r="AS13" s="49">
+        <f>AR13*AN25*0.0075</f>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="41">
+        <f>AI19+AI21+AI17*0.5+AI41+AI45+AI23*0.3+AI51</f>
         <v>0</v>
       </c>
     </row>
@@ -2488,32 +2491,32 @@
       <c r="AM14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AN14" s="41">
-        <f>AH44</f>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="38" t="e">
+      <c r="AN14" s="38" t="e">
         <f>(AH46+AH47+AH48)/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP14" s="50" t="e">
+      <c r="AO14" s="50" t="e">
         <f>AH45/(AH46+AH47+AH48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ14" s="39" t="e">
+      <c r="AP14" s="39" t="e">
         <f>AH28/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR14" s="37" t="e">
+      <c r="AQ14" s="37" t="e">
         <f>AH29/AH28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS14" s="37">
+      <c r="AR14" s="37">
         <f>AN26</f>
         <v>0</v>
       </c>
-      <c r="AT14" s="49">
-        <f>AS14*AN25*0.0075</f>
+      <c r="AS14" s="49">
+        <f>AR14*AN25*0.0075</f>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="41">
+        <f>AH23*0.3+AH19+AH21+AH17*0.5+AH41+AH45+AH51</f>
         <v>0</v>
       </c>
     </row>
@@ -2583,12 +2586,12 @@
         <f>AQ14/AQ13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR15" s="39" t="e">
-        <f>AR14/AR13</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AR15" s="39"/>
       <c r="AS15" s="39"/>
-      <c r="AT15" s="39"/>
+      <c r="AT15" s="39" t="e">
+        <f>AT14/AT13</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="16" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="24" t="s">
@@ -2641,16 +2644,16 @@
         <v>27</v>
       </c>
       <c r="AN16" s="29" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="AO16" s="29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AP16" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="AQ16" s="29" t="s">
-        <v>99</v>
+      <c r="AQ16" s="40" t="s">
+        <v>37</v>
       </c>
       <c r="AR16" s="29" t="s">
         <v>113</v>
@@ -2710,16 +2713,13 @@
       <c r="AM17" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AN17" s="41">
-        <f>AI19+AI21+AI17*0.5+AI41+AI45+AI23*0.3+AI51</f>
-        <v>0</v>
-      </c>
-      <c r="AO17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="37">
+        <f>AI8-AN30</f>
+        <v>0</v>
+      </c>
       <c r="AP17" s="39"/>
-      <c r="AQ17" s="37">
-        <f>AI8-AN30</f>
-        <v>0</v>
-      </c>
+      <c r="AQ17" s="38"/>
       <c r="AR17" s="39"/>
       <c r="AS17" s="39"/>
       <c r="AT17" s="41"/>
@@ -2774,21 +2774,21 @@
       <c r="AM18" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AN18" s="41">
-        <f>AH23*0.3+AH19+AH21+AH17*0.5+AH41+AH45+AH51</f>
-        <v>0</v>
-      </c>
-      <c r="AO18" s="38" t="e">
+      <c r="AN18" s="38" t="e">
         <f>AH15/AH9</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="AO18" s="37">
+        <f>AH8-AN30</f>
+        <v>0</v>
       </c>
       <c r="AP18" s="39" t="e">
         <f>AH30/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ18" s="37">
-        <f>AH8-AN30</f>
-        <v>0</v>
+      <c r="AQ18" s="38" t="e">
+        <f>AH22/AH9</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AR18" s="39" t="e">
         <f>AH32/AH9</f>
@@ -2851,27 +2851,27 @@
         <v>60</v>
       </c>
       <c r="AN19" s="39" t="e">
-        <f t="shared" ref="AN19:AS19" si="5">AN18/AN17</f>
+        <f>AN18/AN17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO19" s="39" t="e">
-        <f t="shared" si="5"/>
+        <f>AO18/AO17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP19" s="39" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ19" s="39" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AN19:AS19" si="6">AP18/AP17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ19" s="42" t="e">
+        <f>AQ18/AQ17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR19" s="39" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS19" s="39" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT19" s="39"/>
@@ -3155,7 +3155,7 @@
       <c r="AF24" s="10"/>
       <c r="AG24" s="16"/>
       <c r="AH24" s="33">
-        <f t="shared" ref="AH24:AH27" si="6">SUM(C24:AG24)</f>
+        <f t="shared" ref="AH24:AH27" si="7">SUM(C24:AG24)</f>
         <v>0</v>
       </c>
       <c r="AI24" s="33"/>
@@ -3173,15 +3173,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO24" s="37" t="e">
-        <f t="shared" ref="AO24:AQ24" si="7">AO23/AO22</f>
+        <f t="shared" ref="AO24:AQ24" si="8">AO23/AO22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP24" s="37" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ24" s="37" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="AF25" s="10"/>
       <c r="AG25" s="16"/>
       <c r="AH25" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI25" s="33"/>
@@ -3274,7 +3274,7 @@
       <c r="AF26" s="10"/>
       <c r="AG26" s="16"/>
       <c r="AH26" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI26" s="33"/>
@@ -3329,7 +3329,7 @@
       <c r="AF27" s="10"/>
       <c r="AG27" s="16"/>
       <c r="AH27" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI27" s="33"/>
@@ -3381,7 +3381,7 @@
       <c r="AF28" s="10"/>
       <c r="AG28" s="16"/>
       <c r="AH28" s="33">
-        <f t="shared" ref="AH28:AH35" si="8">SUM(C28:AG28)</f>
+        <f t="shared" ref="AH28:AH35" si="9">SUM(C28:AG28)</f>
         <v>0</v>
       </c>
       <c r="AI28" s="33"/>
@@ -3433,7 +3433,7 @@
       <c r="AF29" s="10"/>
       <c r="AG29" s="16"/>
       <c r="AH29" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI29" s="33"/>
@@ -3488,7 +3488,7 @@
       <c r="AF30" s="10"/>
       <c r="AG30" s="16"/>
       <c r="AH30" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI30" s="33"/>
@@ -3540,7 +3540,7 @@
       <c r="AF31" s="10"/>
       <c r="AG31" s="16"/>
       <c r="AH31" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI31" s="33"/>
@@ -3595,7 +3595,7 @@
       <c r="AF32" s="10"/>
       <c r="AG32" s="16"/>
       <c r="AH32" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI32" s="33"/>
@@ -3647,7 +3647,7 @@
       <c r="AF33" s="10"/>
       <c r="AG33" s="16"/>
       <c r="AH33" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI33" s="33"/>
@@ -3702,7 +3702,7 @@
       <c r="AF34" s="10"/>
       <c r="AG34" s="16"/>
       <c r="AH34" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI34" s="33"/>
@@ -3754,7 +3754,7 @@
       <c r="AF35" s="10"/>
       <c r="AG35" s="16"/>
       <c r="AH35" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI35" s="33"/>
@@ -3948,7 +3948,7 @@
       <c r="AF39" s="10"/>
       <c r="AG39" s="16"/>
       <c r="AH39" s="33">
-        <f t="shared" ref="AH39" si="9">SUM(C39:AG39)</f>
+        <f t="shared" ref="AH39" si="10">SUM(C39:AG39)</f>
         <v>0</v>
       </c>
       <c r="AI39" s="33"/>

--- a/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/销售日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
   <si>
     <t>林勇</t>
   </si>
@@ -480,6 +480,14 @@
   </si>
   <si>
     <t>免费保养台次（含赠送）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试乘试驾次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试乘试驾率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1498,13 +1506,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AT55"/>
+  <dimension ref="A1:AT56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH11" sqref="AH11"/>
+      <selection pane="bottomRight" activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1759,7 +1767,7 @@
       <c r="AF4" s="10"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="33">
-        <f t="shared" ref="AH4:AH55" si="0">SUM(C4:AG4)</f>
+        <f t="shared" ref="AH4:AH56" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="33"/>
@@ -1837,7 +1845,7 @@
       <c r="AI5" s="33"/>
       <c r="AJ5" s="12"/>
       <c r="AK5" s="35" t="e">
-        <f t="shared" ref="AK5:AK55" si="1">AH5/AI5</f>
+        <f t="shared" ref="AK5:AK56" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5"/>
@@ -1903,11 +1911,11 @@
         <v>34</v>
       </c>
       <c r="AN6" s="37">
-        <f>AH9+AH36</f>
+        <f>AH10+AH37</f>
         <v>0</v>
       </c>
       <c r="AO6" s="38" t="e">
-        <f>AH9/(AH9+AH36)</f>
+        <f>AH10/(AH10+AH37)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP6" s="38" t="e">
@@ -1919,15 +1927,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR6" s="38" t="e">
-        <f>AH18/AH9</f>
+        <f>AH19/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS6" s="37" t="e">
-        <f>AH19/AH18</f>
+        <f>AH20/AH19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT6" s="38" t="e">
-        <f>AH49/AH9</f>
+        <f>AH50/AH10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2088,7 +2096,7 @@
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="B9" s="71"/>
       <c r="C9" s="20"/>
@@ -2123,11 +2131,11 @@
       <c r="AF9" s="10"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="33">
-        <f t="shared" ref="AH9:AH18" si="3">SUM(C9:AG9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI9" s="33"/>
-      <c r="AJ9" s="12"/>
+      <c r="AJ9" s="13"/>
       <c r="AK9" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -2146,7 +2154,7 @@
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="24" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B10" s="71"/>
       <c r="C10" s="20"/>
@@ -2181,7 +2189,7 @@
       <c r="AF10" s="10"/>
       <c r="AG10" s="16"/>
       <c r="AH10" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AH10:AH19" si="3">SUM(C10:AG10)</f>
         <v>0</v>
       </c>
       <c r="AI10" s="33"/>
@@ -2195,37 +2203,37 @@
         <v>34</v>
       </c>
       <c r="AN10" s="37" t="e">
-        <f>AH50/AH49</f>
+        <f>AH51/AH50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="38" t="e">
-        <f>AH20/AH9</f>
+        <f>AH21/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" s="37" t="e">
-        <f>AH21/AH20</f>
+        <f>AH22/AH21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" s="38" t="e">
-        <f>AG16/AG9</f>
+        <f>AG17/AG10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" s="37" t="e">
-        <f>AG17/AG9</f>
+        <f>AG18/AG10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10" s="37" t="e">
-        <f>AG38/AG36</f>
+        <f>AG39/AG37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT10" s="41">
-        <f>AH44</f>
+        <f>AH45</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B11" s="71"/>
       <c r="C11" s="20"/>
@@ -2274,7 +2282,7 @@
         <v>60</v>
       </c>
       <c r="AN11" s="42" t="e">
-        <f t="shared" ref="AN11:AT11" si="4">AN10/AN9</f>
+        <f t="shared" ref="AN11:AP11" si="4">AN10/AN9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO11" s="42" t="e">
@@ -2304,7 +2312,7 @@
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="71"/>
       <c r="C12" s="20"/>
@@ -2376,7 +2384,7 @@
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="20"/>
@@ -2429,7 +2437,7 @@
       <c r="AP13" s="39"/>
       <c r="AQ13" s="37"/>
       <c r="AR13" s="37">
-        <f>(AI9+AI36)*AN32/30</f>
+        <f>(AI10+AI37)*AN32/30</f>
         <v>0</v>
       </c>
       <c r="AS13" s="49">
@@ -2437,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="AT13" s="41">
-        <f>AI19+AI21+AI17*0.5+AI41+AI45+AI23*0.3+AI51</f>
+        <f>AI20+AI22+AI18*0.5+AI42+AI46+AI24*0.3+AI52</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="71"/>
       <c r="C14" s="20"/>
@@ -2492,19 +2500,19 @@
         <v>34</v>
       </c>
       <c r="AN14" s="38" t="e">
-        <f>(AH46+AH47+AH48)/AH9</f>
+        <f>(AH47+AH48+AH49)/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO14" s="50" t="e">
-        <f>AH45/(AH46+AH47+AH48)</f>
+        <f>AH46/(AH47+AH48+AH49)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP14" s="39" t="e">
-        <f>AH28/AH9</f>
+        <f>AH29/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ14" s="37" t="e">
-        <f>AH29/AH28</f>
+        <f>AH30/AH29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR14" s="37">
@@ -2516,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="AT14" s="41">
-        <f>AH23*0.3+AH19+AH21+AH17*0.5+AH41+AH45+AH51</f>
+        <f>AH24*0.3+AH20+AH22+AH18*0.5+AH42+AH46+AH52</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B15" s="71"/>
       <c r="C15" s="20"/>
@@ -2595,7 +2603,7 @@
     </row>
     <row r="16" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="B16" s="71"/>
       <c r="C16" s="20"/>
@@ -2661,11 +2669,13 @@
       <c r="AS16" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="AT16" s="29"/>
+      <c r="AT16" s="29" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="17" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="20"/>
@@ -2722,11 +2732,11 @@
       <c r="AQ17" s="38"/>
       <c r="AR17" s="39"/>
       <c r="AS17" s="39"/>
-      <c r="AT17" s="41"/>
+      <c r="AT17" s="39"/>
     </row>
     <row r="18" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="25" t="s">
-        <v>45</v>
+      <c r="A18" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="B18" s="71"/>
       <c r="C18" s="20"/>
@@ -2775,7 +2785,7 @@
         <v>34</v>
       </c>
       <c r="AN18" s="38" t="e">
-        <f>AH15/AH9</f>
+        <f>AH16/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO18" s="37">
@@ -2783,26 +2793,29 @@
         <v>0</v>
       </c>
       <c r="AP18" s="39" t="e">
-        <f>AH30/AH9</f>
+        <f>AH31/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ18" s="38" t="e">
-        <f>AH22/AH9</f>
+        <f>AH23/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR18" s="39" t="e">
-        <f>AH32/AH9</f>
+        <f>AH33/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS18" s="39" t="e">
-        <f>AH34/AH49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT18" s="41"/>
+        <f>AH35/AH50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT18" s="39" t="e">
+        <f>AH9/AO18</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="19" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="24" t="s">
-        <v>46</v>
+      <c r="A19" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="B19" s="71"/>
       <c r="C19" s="20"/>
@@ -2837,7 +2850,7 @@
       <c r="AF19" s="10"/>
       <c r="AG19" s="16"/>
       <c r="AH19" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI19" s="33"/>
@@ -2859,7 +2872,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AP19" s="39" t="e">
-        <f t="shared" ref="AN19:AS19" si="6">AP18/AP17</f>
+        <f t="shared" ref="AP19:AT19" si="6">AP18/AP17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ19" s="42" t="e">
@@ -2874,11 +2887,14 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT19" s="39"/>
+      <c r="AT19" s="39" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="20" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="25" t="s">
-        <v>48</v>
+      <c r="A20" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="B20" s="71"/>
       <c r="C20" s="20"/>
@@ -2913,7 +2929,7 @@
       <c r="AF20" s="10"/>
       <c r="AG20" s="16"/>
       <c r="AH20" s="33">
-        <f>SUM(C20:AG20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI20" s="33"/>
@@ -2932,10 +2948,10 @@
       <c r="AQ20" s="60"/>
     </row>
     <row r="21" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="72"/>
+      <c r="A21" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="71"/>
       <c r="C21" s="20"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2968,7 +2984,7 @@
       <c r="AF21" s="10"/>
       <c r="AG21" s="16"/>
       <c r="AH21" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C21:AG21)</f>
         <v>0</v>
       </c>
       <c r="AI21" s="33"/>
@@ -2995,10 +3011,10 @@
       </c>
     </row>
     <row r="22" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="27"/>
+      <c r="A22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="72"/>
       <c r="C22" s="20"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -3031,7 +3047,7 @@
       <c r="AF22" s="10"/>
       <c r="AG22" s="16"/>
       <c r="AH22" s="33">
-        <f>SUM(C22:AG22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI22" s="33"/>
@@ -3050,12 +3066,10 @@
       <c r="AQ22" s="37"/>
     </row>
     <row r="23" spans="1:46" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>7</v>
-      </c>
+      <c r="A23" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="27"/>
       <c r="C23" s="20"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -3102,27 +3116,29 @@
         <v>94</v>
       </c>
       <c r="AN23" s="37">
-        <f>AH12</f>
+        <f>AH13</f>
         <v>0</v>
       </c>
       <c r="AO23" s="37">
-        <f>AH13</f>
+        <f>AH14</f>
         <v>0</v>
       </c>
       <c r="AP23" s="37">
-        <f>AH14</f>
+        <f>AH15</f>
         <v>0</v>
       </c>
       <c r="AQ23" s="37" t="e">
-        <f>(AH13+AH14)/AH12</f>
+        <f>(AH14+AH15)/AH13</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="57"/>
+        <v>102</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="C24" s="20"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -3155,7 +3171,7 @@
       <c r="AF24" s="10"/>
       <c r="AG24" s="16"/>
       <c r="AH24" s="33">
-        <f t="shared" ref="AH24:AH27" si="7">SUM(C24:AG24)</f>
+        <f>SUM(C24:AG24)</f>
         <v>0</v>
       </c>
       <c r="AI24" s="33"/>
@@ -3173,21 +3189,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO24" s="37" t="e">
-        <f t="shared" ref="AO24:AQ24" si="8">AO23/AO22</f>
+        <f t="shared" ref="AO24:AQ24" si="7">AO23/AO22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP24" s="37" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ24" s="37" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" s="57"/>
       <c r="C25" s="20"/>
@@ -3222,7 +3238,7 @@
       <c r="AF25" s="10"/>
       <c r="AG25" s="16"/>
       <c r="AH25" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AH25:AH28" si="8">SUM(C25:AG25)</f>
         <v>0</v>
       </c>
       <c r="AI25" s="33"/>
@@ -3239,7 +3255,7 @@
     </row>
     <row r="26" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="57"/>
       <c r="C26" s="20"/>
@@ -3274,7 +3290,7 @@
       <c r="AF26" s="10"/>
       <c r="AG26" s="16"/>
       <c r="AH26" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI26" s="33"/>
@@ -3288,13 +3304,13 @@
         <v>67</v>
       </c>
       <c r="AN26" s="1">
-        <f>AH55-AH9-AH36-AH42</f>
+        <f>AH56-AH10-AH37-AH43</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27" s="57"/>
       <c r="C27" s="20"/>
@@ -3329,7 +3345,7 @@
       <c r="AF27" s="10"/>
       <c r="AG27" s="16"/>
       <c r="AH27" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI27" s="33"/>
@@ -3346,9 +3362,9 @@
     </row>
     <row r="28" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="44"/>
+        <v>112</v>
+      </c>
+      <c r="B28" s="57"/>
       <c r="C28" s="20"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3381,13 +3397,13 @@
       <c r="AF28" s="10"/>
       <c r="AG28" s="16"/>
       <c r="AH28" s="33">
-        <f t="shared" ref="AH28:AH35" si="9">SUM(C28:AG28)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI28" s="33"/>
       <c r="AJ28" s="12"/>
       <c r="AK28" s="35" t="e">
-        <f>AH28/AI28</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL28"/>
@@ -3398,7 +3414,7 @@
     </row>
     <row r="29" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B29" s="44"/>
       <c r="C29" s="20"/>
@@ -3433,13 +3449,13 @@
       <c r="AF29" s="10"/>
       <c r="AG29" s="16"/>
       <c r="AH29" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AH29:AH36" si="9">SUM(C29:AG29)</f>
         <v>0</v>
       </c>
       <c r="AI29" s="33"/>
       <c r="AJ29" s="12"/>
       <c r="AK29" s="35" t="e">
-        <f t="shared" si="1"/>
+        <f>AH29/AI29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL29"/>
@@ -3453,9 +3469,9 @@
     </row>
     <row r="30" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="55"/>
+        <v>115</v>
+      </c>
+      <c r="B30" s="44"/>
       <c r="C30" s="20"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -3505,7 +3521,7 @@
     </row>
     <row r="31" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" s="55"/>
       <c r="C31" s="20"/>
@@ -3554,15 +3570,15 @@
         <v>69</v>
       </c>
       <c r="AN31" s="1">
-        <f>AH8-AH9</f>
+        <f>AH8-AH10</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="56"/>
+        <v>104</v>
+      </c>
+      <c r="B32" s="55"/>
       <c r="C32" s="20"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3612,7 +3628,7 @@
     </row>
     <row r="33" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="56"/>
       <c r="C33" s="20"/>
@@ -3661,13 +3677,13 @@
         <v>86</v>
       </c>
       <c r="AN33" s="1">
-        <f>AH11-AH12</f>
+        <f>AH12-AH13</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="56"/>
       <c r="C34" s="20"/>
@@ -3719,7 +3735,7 @@
     </row>
     <row r="35" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="56"/>
       <c r="C35" s="20"/>
@@ -3767,11 +3783,9 @@
     </row>
     <row r="36" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="67" t="s">
-        <v>8</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B36" s="56"/>
       <c r="C36" s="20"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3804,7 +3818,7 @@
       <c r="AF36" s="10"/>
       <c r="AG36" s="16"/>
       <c r="AH36" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI36" s="33"/>
@@ -3817,9 +3831,11 @@
     </row>
     <row r="37" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="68"/>
+        <v>50</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>8</v>
+      </c>
       <c r="C37" s="20"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3864,8 +3880,8 @@
       <c r="AL37"/>
     </row>
     <row r="38" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="25" t="s">
-        <v>26</v>
+      <c r="A38" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="B38" s="68"/>
       <c r="C38" s="20"/>
@@ -3900,7 +3916,7 @@
       <c r="AF38" s="10"/>
       <c r="AG38" s="16"/>
       <c r="AH38" s="33">
-        <f>SUM(C38:AG38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI38" s="33"/>
@@ -3912,8 +3928,8 @@
       <c r="AL38"/>
     </row>
     <row r="39" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="24" t="s">
-        <v>51</v>
+      <c r="A39" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="B39" s="68"/>
       <c r="C39" s="20"/>
@@ -3948,7 +3964,7 @@
       <c r="AF39" s="10"/>
       <c r="AG39" s="16"/>
       <c r="AH39" s="33">
-        <f t="shared" ref="AH39" si="10">SUM(C39:AG39)</f>
+        <f>SUM(C39:AG39)</f>
         <v>0</v>
       </c>
       <c r="AI39" s="33"/>
@@ -3960,8 +3976,8 @@
       <c r="AL39"/>
     </row>
     <row r="40" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="25" t="s">
-        <v>52</v>
+      <c r="A40" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B40" s="68"/>
       <c r="C40" s="20"/>
@@ -3996,7 +4012,7 @@
       <c r="AF40" s="10"/>
       <c r="AG40" s="16"/>
       <c r="AH40" s="33">
-        <f>SUM(C40:AG40)</f>
+        <f t="shared" ref="AH40" si="10">SUM(C40:AG40)</f>
         <v>0</v>
       </c>
       <c r="AI40" s="33"/>
@@ -4009,7 +4025,7 @@
     </row>
     <row r="41" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="25" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B41" s="68"/>
       <c r="C41" s="20"/>
@@ -4056,10 +4072,10 @@
       <c r="AL41"/>
     </row>
     <row r="42" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="69"/>
+      <c r="A42" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="68"/>
       <c r="C42" s="20"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -4092,7 +4108,7 @@
       <c r="AF42" s="10"/>
       <c r="AG42" s="16"/>
       <c r="AH42" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C42:AG42)</f>
         <v>0</v>
       </c>
       <c r="AI42" s="33"/>
@@ -4104,12 +4120,10 @@
       <c r="AL42"/>
     </row>
     <row r="43" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="67" t="s">
-        <v>10</v>
-      </c>
+      <c r="A43" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="69"/>
       <c r="C43" s="20"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -4154,10 +4168,12 @@
       <c r="AL43"/>
     </row>
     <row r="44" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="69"/>
+      <c r="A44" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="67" t="s">
+        <v>10</v>
+      </c>
       <c r="C44" s="20"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -4202,10 +4218,10 @@
       <c r="AL44"/>
     </row>
     <row r="45" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="22"/>
+      <c r="A45" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="69"/>
       <c r="C45" s="20"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -4238,7 +4254,7 @@
       <c r="AF45" s="10"/>
       <c r="AG45" s="16"/>
       <c r="AH45" s="33">
-        <f>SUM(C45:AG45)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI45" s="33"/>
@@ -4250,12 +4266,10 @@
       <c r="AL45"/>
     </row>
     <row r="46" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="67" t="s">
-        <v>12</v>
-      </c>
+      <c r="A46" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="22"/>
       <c r="C46" s="20"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -4288,7 +4302,7 @@
       <c r="AF46" s="10"/>
       <c r="AG46" s="16"/>
       <c r="AH46" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C46:AG46)</f>
         <v>0</v>
       </c>
       <c r="AI46" s="33"/>
@@ -4301,9 +4315,11 @@
     </row>
     <row r="47" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="68"/>
+        <v>42</v>
+      </c>
+      <c r="B47" s="67" t="s">
+        <v>12</v>
+      </c>
       <c r="C47" s="20"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -4349,7 +4365,7 @@
     </row>
     <row r="48" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="68"/>
       <c r="C48" s="20"/>
@@ -4393,10 +4409,11 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL48"/>
     </row>
     <row r="49" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="25" t="s">
-        <v>56</v>
+      <c r="A49" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="B49" s="68"/>
       <c r="C49" s="20"/>
@@ -4431,7 +4448,7 @@
       <c r="AF49" s="10"/>
       <c r="AG49" s="16"/>
       <c r="AH49" s="33">
-        <f>SUM(C49:AG49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI49" s="33"/>
@@ -4442,17 +4459,17 @@
       </c>
     </row>
     <row r="50" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="69"/>
+      <c r="A50" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="68"/>
       <c r="C50" s="20"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="5"/>
+      <c r="I50" s="4"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -4484,16 +4501,15 @@
       <c r="AI50" s="33"/>
       <c r="AJ50" s="12"/>
       <c r="AK50" s="35" t="e">
-        <f>AH50/AI50</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL50"/>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="51" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="43"/>
+        <v>57</v>
+      </c>
+      <c r="B51" s="69"/>
       <c r="C51" s="20"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -4539,18 +4555,16 @@
     </row>
     <row r="52" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="67" t="s">
-        <v>14</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B52" s="43"/>
       <c r="C52" s="20"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -4576,21 +4590,24 @@
       <c r="AF52" s="10"/>
       <c r="AG52" s="16"/>
       <c r="AH52" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(C52:AG52)</f>
         <v>0</v>
       </c>
       <c r="AI52" s="33"/>
       <c r="AJ52" s="12"/>
       <c r="AK52" s="35" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f>AH52/AI52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL52"/>
     </row>
     <row r="53" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="68"/>
+        <v>13</v>
+      </c>
+      <c r="B53" s="67" t="s">
+        <v>14</v>
+      </c>
       <c r="C53" s="20"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -4635,9 +4652,9 @@
     </row>
     <row r="54" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="69"/>
+        <v>15</v>
+      </c>
+      <c r="B54" s="68"/>
       <c r="C54" s="20"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -4681,11 +4698,11 @@
       </c>
     </row>
     <row r="55" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="46"/>
+      <c r="A55" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="69"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -4721,10 +4738,57 @@
         <v>0</v>
       </c>
       <c r="AI55" s="33"/>
-      <c r="AJ55" s="13" t="s">
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="47"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="16"/>
+      <c r="AH56" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI56" s="33"/>
+      <c r="AJ56" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AK55" s="35" t="e">
+      <c r="AK56" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -4733,12 +4797,12 @@
   <mergeCells count="8">
     <mergeCell ref="AM20:AQ20"/>
     <mergeCell ref="A1:AH2"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B47:B51"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B8:B21"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B8:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
